--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>Stateful component</t>
   </si>
@@ -173,7 +173,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rendering</t>
+      <t>React</t>
     </r>
     <r>
       <rPr>
@@ -198,17 +198,207 @@
     </r>
   </si>
   <si>
-    <t>describes what you want to see on screen</t>
-  </si>
-  <si>
-    <t>smallest building block, plain object, cheap to create</t>
+    <t>ReactDOM.render(
+  element,
+  document.getElementById('root')
+);</t>
+  </si>
+  <si>
+    <t>React elements are immutable.</t>
+  </si>
+  <si>
+    <t>The only way to update the UI is to create a new element, and pass it to ReactDOM.render().</t>
+  </si>
+  <si>
+    <t>React Only Updates What’s Necessary</t>
+  </si>
+  <si>
+    <t>Describes what you want to see on screen</t>
+  </si>
+  <si>
+    <r>
+      <t>In practice, most React apps only call</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ReactDOM.render()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> once.  ==&gt;&gt; code gets encapsulated into stateful components.</t>
+    </r>
+  </si>
+  <si>
+    <t>Smallest building block, plain object, cheap to create</t>
+  </si>
+  <si>
+    <t>React DOM takes care of updating the DOM to match the React elements.</t>
+  </si>
+  <si>
+    <t>Components and Props</t>
+  </si>
+  <si>
+    <t>Components let you split the UI into independent, reusable pieces, and think about each piece in isolation.</t>
+  </si>
+  <si>
+    <t>class Welcome extends React.Component {
+  render() {
+    return &lt;h1&gt;Hello, {this.props.name}&lt;/h1&gt;;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Function component</t>
+  </si>
+  <si>
+    <t>can render DOM tags + user defined components</t>
+  </si>
+  <si>
+    <t>function Welcome(props) {
+  return &lt;h1&gt;Hello, {props.name}&lt;/h1&gt;;
+}
+const element = &lt;Welcome name="Sara" /&gt;;
+ReactDOM.render(
+  element,
+  document.getElementById('root')
+);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conceptually, components are like JavaScript functions, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I/P(Props)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O/P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(React elements describing what should appear on the screen.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  We call ReactDOM.render() with the &lt;Welcome name="Sara" /&gt; element.
+2.  React calls the Welcome component with {name: 'Sara'} as the props.
+3.  Our Welcome component returns a &lt;h1&gt;Hello, Sara&lt;/h1&gt; element as the result.
+4.  React DOM efficiently updates the DOM to match &lt;h1&gt;Hello, Sara&lt;/h1&gt;.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Always start component names with a capital letter.</t>
+    </r>
+  </si>
+  <si>
+    <t>Components can refer to other components in their output.</t>
+  </si>
+  <si>
+    <t>Props naming ==&gt;&gt; component’s own point of view rather than the context in which it is being used.</t>
+  </si>
+  <si>
+    <t>Props are Read-Only</t>
+  </si>
+  <si>
+    <t>State and Lifecycle</t>
+  </si>
+  <si>
+    <t>State is similar to props, but it is private and fully controlled by the component.</t>
+  </si>
+  <si>
+    <t>Do Not Modify State Directly</t>
+  </si>
+  <si>
+    <t>// Wrong
+this.state.comment = 'Hello';
+// Correct
+this.setState({comment: 'Hello'});</t>
+  </si>
+  <si>
+    <t>The only place where you can assign this.state is the constructor.</t>
+  </si>
+  <si>
+    <t>State Updates are Merged</t>
+  </si>
+  <si>
+    <t>The merging is shallow, so this.setState({comments}) leaves this.state.posts intact, but completely replaces this.state.comments.</t>
+  </si>
+  <si>
+    <t>A component may choose to pass its state down as props to its child components:</t>
+  </si>
+  <si>
+    <t>You can use stateless components inside stateful components, and vice versa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +427,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +481,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,15 +962,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" customWidth="1"/>
   </cols>
@@ -834,22 +1041,152 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D30:D35"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
-    <sheet name="React-MainConcepts" sheetId="2" r:id="rId2"/>
+    <sheet name="React-16.5.2-MainConcepts" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Stateful component</t>
   </si>
@@ -393,12 +396,117 @@
   <si>
     <t>You can use stateless components inside stateful components, and vice versa.</t>
   </si>
+  <si>
+    <t>Handling Events</t>
+  </si>
+  <si>
+    <t>React events are named using camelCase, rather than lowercase.</t>
+  </si>
+  <si>
+    <t>With JSX you pass a function as the event handler, rather than a string.</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={activateLasers}&gt; Activate Lasers&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot return false to prevent default behavior in React. You must call preventDefault explicitly.</t>
+  </si>
+  <si>
+    <t>event obj passed to handler is synthetic event</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conditional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rendering</t>
+    </r>
+  </si>
+  <si>
+    <t>Preventing Component from Rendering. Return null from render() method of component</t>
+  </si>
+  <si>
+    <t>can render component in if/else or for loop</t>
+  </si>
+  <si>
+    <t>Returning null from a component’s render method does not affect the firing of the component’s lifecycle methods. For instance componentDidUpdate will still be called.</t>
+  </si>
+  <si>
+    <t>Lists and Keys</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Keys help React identify which items have changed, are added, or are removed</t>
+  </si>
+  <si>
+    <t>Keys give the array elements a stable identity</t>
+  </si>
+  <si>
+    <t>not recommend using indexes for keys if the order of items may change.</t>
+  </si>
+  <si>
+    <t>https://medium.com/@robinpokorny/index-as-a-key-is-an-anti-pattern-e0349aece318</t>
+  </si>
+  <si>
+    <t>https://reactjs.org/docs/reconciliation.html#recursing-on-children</t>
+  </si>
+  <si>
+    <t>A good rule of thumb is that elements inside the map() call need keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifies a list item among its siblings. </t>
+  </si>
+  <si>
+    <t>We can use the same keys when we produce two different arrays</t>
+  </si>
+  <si>
+    <t>Keys serve as a hint to React but they don’t get passed to your components. If you need the same value in your component, pass it explicitly as a prop with a different name</t>
+  </si>
+  <si>
+    <t>const content = posts.map((post) =&gt;
+  &lt;Post
+    key={post.id}
+    id={post.id}
+    title={post.title} /&gt;
+);</t>
+  </si>
+  <si>
+    <t>Keep in mind that if the map() body is too nested, it might be a good time to extract a component.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +540,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -456,10 +572,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,9 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -493,8 +607,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,6 +627,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -550,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +713,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,25 +1104,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1002,19 +1130,19 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -1048,7 +1176,7 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1073,7 +1201,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1083,7 +1211,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
@@ -1099,13 +1227,13 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1115,10 +1243,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1138,13 +1266,13 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1152,41 +1280,142 @@
       <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C53" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D30:D35"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">
@@ -1200,8 +1429,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D50" r:id="rId1"/>
+    <hyperlink ref="D46" r:id="rId2" location="recursing-on-children"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>Stateful component</t>
   </si>
@@ -500,6 +500,122 @@
   </si>
   <si>
     <t>Keep in mind that if the map() body is too nested, it might be a good time to extract a component.</t>
+  </si>
+  <si>
+    <t>Composition vs Inheritance</t>
+  </si>
+  <si>
+    <t>Lifting state up</t>
+  </si>
+  <si>
+    <t>React has a powerful composition model, and we recommend using composition instead of inheritance to reuse code between components.</t>
+  </si>
+  <si>
+    <t>function FancyBorder(props) {
+  return (
+    &lt;div className={'FancyBorder FancyBorder-' + props.color}&gt;
+      {props.children}
+    &lt;/div&gt;
+  );
+}</t>
+  </si>
+  <si>
+    <t>Some components don’t know their children ahead of time. This is especially common for components like Sidebar or Dialog that represent generic “boxes”.
+We recommend that such components use the special children prop to pass children elements directly into their output:
+This lets other components pass arbitrary children to them by nesting the JSX</t>
+  </si>
+  <si>
+    <t>In React, this is also achieved by composition, where a more “specific” component renders a more “generic” one and configures it with props:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Containment and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Children</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specialization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Sometimes we think about components as being “special cases” of other components</t>
+    </r>
+  </si>
+  <si>
+    <t>Composition works equally well for components defined as classes</t>
+  </si>
+  <si>
+    <t>So What About Inheritance?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Props and composition give you all the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flexibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you need to customize a component’s look and behavior in an explicit and safe way. Remember that components may accept arbitrary props, including primitive values, React elements, or functions.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you want to reuse non-UI functionality between components, we suggest extracting it into a separate JavaScript module. The components may import it and use that function, object, or a class, without extending it.</t>
+  </si>
+  <si>
+    <t>Thinking in React</t>
+  </si>
+  <si>
+    <t>Start With A Mock</t>
   </si>
 </sst>
 </file>
@@ -576,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,6 +724,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -616,7 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1090,15 +1209,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" customWidth="1"/>
   </cols>
@@ -1122,7 +1241,7 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1130,19 +1249,19 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -1272,7 +1391,7 @@
       <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1280,31 +1399,31 @@
       <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
@@ -1318,7 +1437,7 @@
       <c r="C38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1326,7 +1445,7 @@
       <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
@@ -1361,7 +1480,7 @@
       <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1375,30 +1494,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="3:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C53" s="11" t="s">
         <v>96</v>
       </c>
@@ -1406,9 +1525,73 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="C60" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C66" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>Stateful component</t>
   </si>
@@ -616,6 +616,29 @@
   </si>
   <si>
     <t>Start With A Mock</t>
+  </si>
+  <si>
+    <t>Step 1: Break The UI Into A Component Hierarchy</t>
+  </si>
+  <si>
+    <t>Step 2: Build A Static Version in React</t>
+  </si>
+  <si>
+    <t>Step 3: Identify The Minimal (but complete) Representation Of UI State</t>
+  </si>
+  <si>
+    <t>1. Is it passed in from a parent via props? If so, it probably isn’t state.
+2. Does it remain unchanged over time? If so, it probably isn’t state
+3. Can you compute it based on any other state or props in your component? If so, it isn’t state.</t>
+  </si>
+  <si>
+    <t>Step 4: Identify Where Your State Should Live</t>
+  </si>
+  <si>
+    <t>Step 5: Add Inverse Data Flow</t>
+  </si>
+  <si>
+    <t>And That’s It</t>
   </si>
 </sst>
 </file>
@@ -692,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,6 +758,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1209,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,29 +1603,66 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C68" t="s">
         <v>112</v>
       </c>
+      <c r="D68" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="17"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D68:D71"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>No XSS =&gt;&gt; React DOM escapes any values embedded in JSX before rendering them.</t>
-  </si>
-  <si>
-    <t>rendering logic is inherently coupled with other UI logic : how events are handled, how the state changes over time</t>
   </si>
   <si>
     <t>Points</t>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>And That’s It</t>
+  </si>
+  <si>
+    <t>Rendering logic is inherently coupled with other UI logic : how events are handled, how the state changes over time</t>
   </si>
 </sst>
 </file>
@@ -734,9 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -762,6 +759,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,13 +1252,13 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1276,19 +1276,19 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -1315,354 +1315,359 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>53</v>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>62</v>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>58</v>
+      <c r="D23" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>70</v>
+      <c r="D30" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>79</v>
+      <c r="D38" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
         <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>92</v>
+      <c r="D46" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C60" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="C60" s="11" t="s">
         <v>102</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C65" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
+    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C66" s="8" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
         <v>111</v>
       </c>
-      <c r="C68" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>116</v>
+      <c r="D68" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="D70" s="16"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D68:D71"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>Stateful component</t>
   </si>
@@ -517,11 +517,6 @@
 }</t>
   </si>
   <si>
-    <t>Some components don’t know their children ahead of time. This is especially common for components like Sidebar or Dialog that represent generic “boxes”.
-We recommend that such components use the special children prop to pass children elements directly into their output:
-This lets other components pass arbitrary children to them by nesting the JSX</t>
-  </si>
-  <si>
     <t>In React, this is also achieved by composition, where a more “specific” component renders a more “generic” one and configures it with props:</t>
   </si>
   <si>
@@ -638,14 +633,145 @@
     <t>And That’s It</t>
   </si>
   <si>
-    <t>Rendering logic is inherently coupled with other UI logic : how events are handled, how the state changes over time</t>
+    <t xml:space="preserve">React </t>
+  </si>
+  <si>
+    <t>Declarative for dynamic data</t>
+  </si>
+  <si>
+    <t>Props essentially help you write reusable code.</t>
+  </si>
+  <si>
+    <t>When should an item be a component of its own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item that share similar data or behavior </t>
+  </si>
+  <si>
+    <t>Refactoring a large component having responsibility of following:
+1. Defining the states
+2. Initializing the states
+3. Computing values based on the states
+4. Setting and restting effects 
+5. Rendering the UI based on the states</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">React has a logic to put all this in a function called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HOOKS</t>
+    </r>
+  </si>
+  <si>
+    <t>React embraces the fact that rendering logic is inherently coupled with other UI logic : how events are handled, how the state changes over time</t>
+  </si>
+  <si>
+    <t>Passing Arguments to Event Handlers</t>
+  </si>
+  <si>
+    <t>&lt;button onClick={(e) =&gt; this.deleteRow(id, e)}&gt;Delete Row&lt;/button&gt;
+&lt;button onClick={this.deleteRow.bind(this, id)}&gt;Delete Row&lt;/button&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we are using ES6  class methods as the event handlers we face </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> issue in the callbacks, Solutions are:
+1. We have to bind class method (Preferred)
+2. Public class field syntax(experimental but available in React)
+3. Arrow functions in the handler(performance issues if passed as props in the child components)</t>
+    </r>
+  </si>
+  <si>
+    <t>There should be a single “source of truth” for any data that changes in a React application. </t>
+  </si>
+  <si>
+    <t>Instead of trying to sync the state between different components, you should rely on the top-down data flow.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Some components don’t know their children ahead of time. This is especially common for components like Sidebar or Dialog that represent generic “boxes”.
+We recommend that such components use the special children prop to pass children elements directly into their output:
+This lets other components pass arbitrary children to them by nesting the JSX
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Contacts /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are just objects, so you can pass them as props like any other data.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +813,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -715,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -747,6 +881,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -756,10 +899,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1068,17 +1211,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E25"/>
+  <dimension ref="A3:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1226,6 +1369,22 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1236,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,413 +1420,449 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D13" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="8" t="s">
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+    <row r="26" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="D29" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D31" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D39" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:4" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C42" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="8" t="s">
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C49" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C53" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="C59" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C62" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C60" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="69" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C69" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C65" s="8" t="s">
+    <row r="70" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C70" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C66" s="8" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+      <c r="C72" t="s">
         <v>110</v>
       </c>
-      <c r="C68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="D72" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="D71" s="16"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>117</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="D74" s="22"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">
@@ -1682,11 +1877,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D50" r:id="rId1"/>
-    <hyperlink ref="D46" r:id="rId2" location="recursing-on-children"/>
+    <hyperlink ref="D53" r:id="rId1"/>
+    <hyperlink ref="D49" r:id="rId2" location="recursing-on-children"/>
+    <hyperlink ref="C60" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
     <sheet name="React-16.5.2-MainConcepts" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Advanced concepts" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
   <si>
     <t>Stateful component</t>
   </si>
@@ -765,6 +766,292 @@
       </rPr>
       <t xml:space="preserve"> are just objects, so you can pass them as props like any other data.</t>
     </r>
+  </si>
+  <si>
+    <t>Code-Splitting</t>
+  </si>
+  <si>
+    <t>dynamic import()</t>
+  </si>
+  <si>
+    <t>import("./math").then(math =&gt; {
+  console.log(math.add(16, 26));
+});</t>
+  </si>
+  <si>
+    <t>import { add } from './math';
+console.log(add(16, 26));</t>
+  </si>
+  <si>
+    <t>React.lazy</t>
+  </si>
+  <si>
+    <t>import OtherComponent from './OtherComponent';</t>
+  </si>
+  <si>
+    <t>const OtherComponent = React.lazy(() =&gt; import('./OtherComponent'));</t>
+  </si>
+  <si>
+    <t>Route-based code splitting</t>
+  </si>
+  <si>
+    <t>Named Exports</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Context is designed to share data that can be considered “global” for a tree of React components, such as the current authenticated user, theme, or preferred language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if need to access context values outside render method </t>
+  </si>
+  <si>
+    <t>contextType, which is a static variable on the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The traditional way to retrieve Context values was by wrapping the child component in the Consumer. From there, you would be able to access the value prop as props. 
+</t>
+  </si>
+  <si>
+    <t>When to Use Context
+1. Class component</t>
+  </si>
+  <si>
+    <t>2. Function Component with hooks</t>
+  </si>
+  <si>
+    <t>&lt;UserConsumer&gt;
+        {
+            props =&gt; {
+                return &lt;div&gt;{props.name}&lt;/div&gt;
+            }
+        }
+      &lt;/UserConsumer&gt;</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>1. Use const xContext = React.createContext() to create context.
+2. Pull xContext.Provider and xContext.Consumer out of xContext
+3. Wrap Provider around your parent component.
+4. A class can consume with static contextType = xContext
+5. A functional component can consume with const x = useContext(xContext)</t>
+  </si>
+  <si>
+    <t>Redux</t>
+  </si>
+  <si>
+    <t>if we are using functional component and hooks to access context values</t>
+  </si>
+  <si>
+    <t>Central store</t>
+  </si>
+  <si>
+    <t>To manage app states.
+Manages a predictable state update process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Reducers</t>
+  </si>
+  <si>
+    <t>Need to have one store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can have multiple reducers </t>
+  </si>
+  <si>
+    <t>App states which are not dependent on each other can be handled by different reducers. React will merge them in to one.</t>
+  </si>
+  <si>
+    <r>
+      <t>static contextType = MyContext
+and get the value in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this.context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> const context = React.useContext(MyContext);
+and use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> later on. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stores entire app state.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from react and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from react-redux package.
+2. Create initial state object
+3. Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function.
+4. Create store using createStore(reducerFn)
+5. Wrap app root container in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> passing store.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Middleware </t>
+  </si>
+  <si>
+    <t>Logging middleware</t>
+  </si>
+  <si>
+    <t>API call using middleware</t>
   </si>
 </sst>
 </file>
@@ -849,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,9 +1174,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -899,12 +1195,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,6 +1220,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13211175" y="5905500"/>
+          <a:ext cx="10058400" cy="5505109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89865</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13218583" y="12382500"/>
+          <a:ext cx="6916115" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1380,7 +1771,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C28" t="s">
@@ -1397,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1826,7 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1443,19 +1834,19 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -1490,7 +1881,7 @@
       <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1498,19 +1889,19 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -1592,7 +1983,7 @@
       <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1600,31 +1991,31 @@
       <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
@@ -1638,7 +2029,7 @@
       <c r="C39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="23" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1646,7 +2037,7 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
@@ -1656,16 +2047,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
+    <row r="42" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C42" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
+    <row r="43" spans="2:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1745,19 +2136,19 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="2:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="17" t="s">
+    <row r="60" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="19" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1812,14 +2203,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C72" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="25" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1827,29 +2218,31 @@
       <c r="C73" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="22"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>112</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>113</v>
       </c>
-      <c r="D75" s="22"/>
+      <c r="D75" s="25"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>115</v>
       </c>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>116</v>
       </c>
+      <c r="D77" s="25"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
@@ -1861,8 +2254,8 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D72:D75"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D72:D77"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">
@@ -1888,9 +2281,205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="17"/>
+    <col min="3" max="3" width="31" style="20" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="C15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G15:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="5220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>Stateful component</t>
   </si>
@@ -215,35 +215,6 @@
   </si>
   <si>
     <t>Describes what you want to see on screen</t>
-  </si>
-  <si>
-    <r>
-      <t>In practice, most React apps only call</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ReactDOM.render()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> once.  ==&gt;&gt; code gets encapsulated into stateful components.</t>
-    </r>
-  </si>
-  <si>
-    <t>Smallest building block, plain object, cheap to create</t>
   </si>
   <si>
     <t>React DOM takes care of updating the DOM to match the React elements.</t>
@@ -279,53 +250,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Conceptually, components are like JavaScript functions, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I/P(Props)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">==&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O/P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(React elements describing what should appear on the screen.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1.  We call ReactDOM.render() with the &lt;Welcome name="Sara" /&gt; element.
 2.  React calls the Welcome component with {name: 'Sara'} as the props.
 3.  Our Welcome component returns a &lt;h1&gt;Hello, Sara&lt;/h1&gt; element as the result.
@@ -673,14 +597,7 @@
     </r>
   </si>
   <si>
-    <t>React embraces the fact that rendering logic is inherently coupled with other UI logic : how events are handled, how the state changes over time</t>
-  </si>
-  <si>
     <t>Passing Arguments to Event Handlers</t>
-  </si>
-  <si>
-    <t>&lt;button onClick={(e) =&gt; this.deleteRow(id, e)}&gt;Delete Row&lt;/button&gt;
-&lt;button onClick={this.deleteRow.bind(this, id)}&gt;Delete Row&lt;/button&gt;</t>
   </si>
   <si>
     <r>
@@ -1053,12 +970,282 @@
   <si>
     <t>API call using middleware</t>
   </si>
+  <si>
+    <t>React embraces the fact that rendering(DOM generating) logic is inherently coupled with other UI logic : how events are handled, how the state changes over time</t>
+  </si>
+  <si>
+    <t>Reduce Coupling increase Cohesion</t>
+  </si>
+  <si>
+    <t>Components describe your UI at any point in time, just like a server rendered app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual DOM </t>
+  </si>
+  <si>
+    <t>On Every Update:
+1.  React builds a new virtual DOM subtree.
+2. Diff it with the old one.
+3. Computes the minimum set of DOM mutations and put them in a Queue.
+4. and batch executes all the queued updates.</t>
+  </si>
+  <si>
+    <t>JavaScript library for building user interfaces.</t>
+  </si>
+  <si>
+    <t>For example, class becomes className in JSX, and tabindex becomes tabIndex.</t>
+  </si>
+  <si>
+    <t>Smallest building block, plain object, cheap to create.</t>
+  </si>
+  <si>
+    <t>Elements are what components are “made of”.</t>
+  </si>
+  <si>
+    <r>
+      <t>In practice, most React apps only call</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ReactDOM.render()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> once. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> The way to trigger rerender of the UI is to through getting code encapsulated into stateful components.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Highly cohesive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> building block for UIs, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loosely coupled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with other components.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Coup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng: Degree to which each program module re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">es on each of the other modules. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Coh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sion: Degree to which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lements of a module belongs together.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conceptually, components are like JavaScript functions, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I/P(Props)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O/P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> describing what should appear on the screen.)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;button onClick={(e) =&gt; this.deleteRow(id, e)}&gt;Delete Row&lt;/button&gt;
+&lt;button onClick={this.deleteRow.bind(this, id)}&gt;Delete Row&lt;/button&gt;
+e = react event object</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,6 +1291,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1602,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E28"/>
+  <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,18 +1966,26 @@
     </row>
     <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1786,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,451 +2021,503 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="24"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="22"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="22"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="C42" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>127</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
       <c r="C45" t="s">
-        <v>82</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C51" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C52" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="19" t="s">
-        <v>130</v>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C64" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>105</v>
-      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C69" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C70" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="B68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="25"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="C73" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="25"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="25"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="25"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C79" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D81:D86"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">
@@ -2270,9 +2532,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D53" r:id="rId1"/>
-    <hyperlink ref="D49" r:id="rId2" location="recursing-on-children"/>
-    <hyperlink ref="C60" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
+    <hyperlink ref="D62" r:id="rId1"/>
+    <hyperlink ref="D58" r:id="rId2" location="recursing-on-children"/>
+    <hyperlink ref="C69" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2283,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2300,101 +2562,101 @@
   <sheetData>
     <row r="4" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D7" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="105" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E10" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="G11" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="135" x14ac:dyDescent="0.25">
       <c r="D13" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="3:7" ht="135" x14ac:dyDescent="0.25">
       <c r="C15" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
@@ -2402,10 +2664,10 @@
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G17" s="26"/>
     </row>
@@ -2423,7 +2685,7 @@
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G22" s="26"/>
     </row>
@@ -2438,29 +2700,29 @@
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E27" s="17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D40" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="5220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
   <si>
     <t>Stateful component</t>
   </si>
@@ -331,9 +331,6 @@
     <t>&lt;button onClick={activateLasers}&gt; Activate Lasers&lt;/button&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> cannot return false to prevent default behavior in React. You must call preventDefault explicitly.</t>
-  </si>
-  <si>
     <t>event obj passed to handler is synthetic event</t>
   </si>
   <si>
@@ -766,10 +763,6 @@
     <t>Central store</t>
   </si>
   <si>
-    <t>To manage app states.
-Manages a predictable state update process.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -843,122 +836,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> later on. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stores entire app state.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Steps:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Import </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>createStore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from react and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Provider</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> from react-redux package.
-2. Create initial state object
-3. Create a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reducer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function.
-4. Create store using createStore(reducerFn)
-5. Wrap app root container in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Provider</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> passing store.</t>
     </r>
   </si>
   <si>
@@ -1239,6 +1116,326 @@
     <t>&lt;button onClick={(e) =&gt; this.deleteRow(id, e)}&gt;Delete Row&lt;/button&gt;
 &lt;button onClick={this.deleteRow.bind(this, id)}&gt;Delete Row&lt;/button&gt;
 e = react event object</t>
+  </si>
+  <si>
+    <t>Cannot return false to prevent default behavior in React. You must call preventDefault explicitly.</t>
+  </si>
+  <si>
+    <t>People use Redux middleware for logging, crash reporting, talking to an asynchronous API, routing, and more.</t>
+  </si>
+  <si>
+    <t>https://redux.js.org/advanced/middleware</t>
+  </si>
+  <si>
+    <t>1. Logging</t>
+  </si>
+  <si>
+    <t>2. Crash reporting: reporting JavaScript errors in production (Sentry with stack trace, action, state)</t>
+  </si>
+  <si>
+    <t>Problems solved =&gt;</t>
+  </si>
+  <si>
+    <t>To manage app states.
+Manages a predictable state update process.
+It also enables time travel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stores entire app state.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from react and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from react-redux package.
+2. Create initial state object
+3. Create a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function.
+4. Create store using createStore(reducerFn)
+5. Wrap app root container in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> passing store.
+The important part is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> component which makes the Redux store available to all its descendants. Without this component you would have to pass the store as a prop to all the components that need it.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. SAGAs: Testing easy
+2. Thunk: Better Security</t>
+  </si>
+  <si>
+    <r>
+      <t>createStore:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Creates a Redux store that holds the complete state tree of your app.
+There should only be a single store in your app.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>combineReducers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The combineReducers helper function turns an object whose values are different reducing functions into a single reducing function you can pass to</t>
+    </r>
+  </si>
+  <si>
+    <t>applyMiddleware(...middleware)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connect() of react redux: </t>
+  </si>
+  <si>
+    <t>Testing in React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jest: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React testing library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set of helpers that let you test React components without relying on their implementation details.
+2. Although it doesn’t provide a way to “shallowly” render a component without its children, a test runner like Jest lets you do this by mocking.
+</t>
+  </si>
+  <si>
+    <t>Setting &amp; Running tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tear down </t>
+  </si>
+  <si>
+    <t>When the test ends, we want to “clean up” and unmount the tree from the document.</t>
+  </si>
+  <si>
+    <t>Act ()</t>
+  </si>
+  <si>
+    <t>Units: tasks like rendering, user events, or data fetching.</t>
+  </si>
+  <si>
+    <t>process and apply all updates related to these units before assertions</t>
+  </si>
+  <si>
+    <t>Rendering</t>
+  </si>
+  <si>
+    <t>Commonly, you might want to test whether a component renders correctly for given props.</t>
+  </si>
+  <si>
+    <t>installation</t>
+  </si>
+  <si>
+    <t>1.   "jest"
+2.    "@babel/preset-env"
+3.    "@babel/preset-react"
+4.    "babel-jest"
+5.    "react-test-renderer"</t>
+  </si>
+  <si>
+    <t>1. JS test runner. =&gt; Validation lib and execute tests
+2. Access the DOM via jsdom.
+3. Approximation of how browser works.
+4. great iteration speed
+5. mocking modules and timers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render the react tree to a dom element in document
+and traversing </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Testing in react is emulate the mounting of component tree in non existing DOM element using testing utilities(enzyme/react test lib) and traversing through the component to check for existence of intended component behaviour.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Do test isolated units.
+Do test your conditional outputs.</t>
+  </si>
+  <si>
+    <t>named exports from modules: {name}
+Default exports: can give any name</t>
+  </si>
+  <si>
+    <t>While import:</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,6 +1586,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1436,7 +1654,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>171109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1480,7 +1698,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>89865</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1804,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E30"/>
+  <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,26 +2184,34 @@
     </row>
     <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
         <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1996,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,34 +2250,34 @@
     <row r="2" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2064,7 +2290,7 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2072,19 +2298,19 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>160</v>
+      </c>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -2101,7 +2327,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,35 +2346,35 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>167</v>
+      </c>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -2157,10 +2383,10 @@
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -2179,18 +2405,18 @@
     <row r="29" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -2235,7 +2461,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -2245,7 +2471,7 @@
       <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="29" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2253,31 +2479,31 @@
       <c r="C41" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="22"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C44" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="22"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="22"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
@@ -2291,7 +2517,7 @@
       <c r="C48" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2299,102 +2525,102 @@
       <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" t="s">
         <v>76</v>
-      </c>
-      <c r="D50" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="C51" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="C52" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
         <v>78</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
         <v>82</v>
       </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
       <c r="D58" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C65" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -2403,112 +2629,188 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C78" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C79" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
         <v>106</v>
       </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>111</v>
+      <c r="D81" s="32" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="D82" s="32"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D83" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="D83" s="32"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="25"/>
+        <v>109</v>
+      </c>
+      <c r="D84" s="32"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="D85" s="32"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="25"/>
+        <v>112</v>
+      </c>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C92" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B94" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2543,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G40"/>
+  <dimension ref="C4:G47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,176 +2864,226 @@
   <sheetData>
     <row r="4" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D7" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="105" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="3:7" ht="135" x14ac:dyDescent="0.25">
       <c r="D13" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="16" t="s">
+    </row>
+    <row r="15" spans="3:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="C15" s="20" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="E15" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="26"/>
+      <c r="D16" s="22"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="26"/>
+        <v>152</v>
+      </c>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="26"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="26"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="26"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="26"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="26"/>
+        <v>150</v>
+      </c>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="26"/>
+      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="26"/>
+      <c r="G24" s="33"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="26"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="26"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E27" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E44" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E45" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="23" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G15:G26"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C39" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
   <si>
     <t>Stateful component</t>
   </si>
@@ -1437,12 +1437,173 @@
   <si>
     <t>While import:</t>
   </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. BrowserRouter, 
+2. NavLink,
+3. Switch, 
+4. Route from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>react-router-dom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To change route dynamically: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>props.history.push('/game')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To get the route param: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>props.match.params</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Static routing,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the routes are declared and it imported in the Top level before rendering.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">match.url helps us make a relative path </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">So in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamic routing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the routing takes place as the App is rendering. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Higher Order Components </t>
+  </si>
+  <si>
+    <r>
+      <t>Concretely, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a higher-order component is a function that takes a component and returns a new component.</t>
+    </r>
+  </si>
+  <si>
+    <t>ex: create() of Redux</t>
+  </si>
+  <si>
+    <t>Mixins ==&gt;&gt; HOC</t>
+  </si>
+  <si>
+    <t>Note that a HOC doesn’t modify the input component, nor does it use inheritance to copy its behavior. Rather, a HOC composes the original component by wrapping it in a container component. A HOC is a pure function with zero side-effects.</t>
+  </si>
+  <si>
+    <t>not part of react API, patterns emerges from react compositional nature</t>
+  </si>
+  <si>
+    <t>This is where render props and HOCs come into play. They are nothing but ways for a component to ask what should it render. This drives code reuse even further.</t>
+  </si>
+  <si>
+    <t>Render Props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When to use:
+1. I want to reuse component logic.
+2. When I want to abstract away imperative code to provide a easier to understand declarative API. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,6 +1668,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1535,7 +1711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,6 +1783,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1617,9 +1812,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1648,13 +1840,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>171109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1692,13 +1884,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>89865</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>114821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2024,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,11 +2313,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
@@ -2161,14 +2353,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2222,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,14 +2475,14 @@
     <row r="8" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2298,29 +2490,31 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>39</v>
       </c>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>38</v>
       </c>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -2348,7 +2542,7 @@
       <c r="C19" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="38" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2356,25 +2550,25 @@
       <c r="C20" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -2471,7 +2665,7 @@
       <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2479,31 +2673,31 @@
       <c r="C41" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="36"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="36"/>
     </row>
     <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C44" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="29"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
@@ -2517,7 +2711,7 @@
       <c r="C48" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="37" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2525,7 +2719,7 @@
       <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="30"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
@@ -2698,7 +2892,7 @@
       <c r="C81" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="34" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2706,31 +2900,31 @@
       <c r="C82" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="32"/>
+      <c r="D82" s="34"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="32"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="32"/>
+      <c r="D84" s="34"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="32"/>
+      <c r="D85" s="34"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="32"/>
+      <c r="D86" s="34"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
@@ -2766,7 +2960,7 @@
       </c>
     </row>
     <row r="94" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="20" t="s">
         <v>193</v>
       </c>
       <c r="C94" s="26" t="s">
@@ -2792,7 +2986,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>197</v>
       </c>
@@ -2800,12 +2994,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C101" s="19" t="s">
         <v>200</v>
       </c>
@@ -2813,13 +3007,50 @@
         <v>201</v>
       </c>
     </row>
+    <row r="105" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="34"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="34"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="34"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D9:D12"/>
+  <mergeCells count="6">
+    <mergeCell ref="D105:D108"/>
     <mergeCell ref="D40:D45"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="D81:D86"/>
+    <mergeCell ref="D9:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">
@@ -2837,18 +3068,19 @@
     <hyperlink ref="D62" r:id="rId1"/>
     <hyperlink ref="D58" r:id="rId2" location="recursing-on-children"/>
     <hyperlink ref="C69" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
+    <hyperlink ref="C107" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G47"/>
+  <dimension ref="C4:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,142 +3176,199 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="225" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
+    <row r="14" spans="3:7" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="3:7" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="20"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="23" spans="3:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="C23" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G23" s="39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="22"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="17" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="22"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="17" t="s">
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="17" t="s">
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="17" t="s">
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="20" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E46" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="17" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="17" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E49" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E42" s="21" t="s">
+    <row r="50" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E50" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D43" s="21" t="s">
+    <row r="51" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E44" s="27" t="s">
+    <row r="52" spans="4:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E52" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="E45" s="27" t="s">
+    <row r="53" spans="4:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E53" s="27" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="27" t="s">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="23" t="s">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="23" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G15:G26"/>
+    <mergeCell ref="G23:G34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1"/>
+    <hyperlink ref="C47" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
     <sheet name="React-16.5.2-MainConcepts" sheetId="2" r:id="rId2"/>
     <sheet name="Advanced concepts" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sass" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="272">
   <si>
     <t>Stateful component</t>
   </si>
@@ -1299,21 +1299,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>combineReducers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The combineReducers helper function turns an object whose values are different reducing functions into a single reducing function you can pass to</t>
-    </r>
-  </si>
-  <si>
     <t>applyMiddleware(...middleware)</t>
   </si>
   <si>
@@ -1471,22 +1456,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">To change route dynamically: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>props.history.push('/game')</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">To get the route param: </t>
     </r>
     <r>
@@ -1597,13 +1566,260 @@
     <t xml:space="preserve">When to use:
 1. I want to reuse component logic.
 2. When I want to abstract away imperative code to provide a easier to understand declarative API. </t>
+  </si>
+  <si>
+    <t>refs , and frowardRefs</t>
+  </si>
+  <si>
+    <t>Ref forwarding is an opt-in feature that lets some components take a ref they receive, and pass it further down (in other words, “forward” it) to a child.</t>
+  </si>
+  <si>
+    <t>1. We create a React ref by calling React.createRef and assign it to a ref variable.</t>
+  </si>
+  <si>
+    <t>2. We pass our ref down to &lt;FancyButton ref={ref}&gt; by specifying it as a JSX attribute.</t>
+  </si>
+  <si>
+    <t>3. React passes the ref to the (props, ref) =&gt; ... function inside forwardRef as a second argument.</t>
+  </si>
+  <si>
+    <t>4. We forward this ref argument down to &lt;button ref={ref}&gt; by specifying it as a JSX attribute.</t>
+  </si>
+  <si>
+    <t>5. When the ref is attached, ref.current will point to the &lt;button&gt; DOM node.</t>
+  </si>
+  <si>
+    <t>Error Boundaries</t>
+  </si>
+  <si>
+    <t>https://codepen.io/gaearon/pen/wqvxGa?editors=0010</t>
+  </si>
+  <si>
+    <r>
+      <t>Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.3"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>static getDerivedStateFromError()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> to render a fallback UI after an error has been thrown. Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.3"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>componentDidCatch()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> to log error information.</t>
+    </r>
+  </si>
+  <si>
+    <t>Flow of React App</t>
+  </si>
+  <si>
+    <t>Plugin that simplifies creation of HTML files to serve your bundles</t>
+  </si>
+  <si>
+    <t>Under the hood, Create React App uses Webpack with html-webpack-plugin.</t>
+  </si>
+  <si>
+    <t>first module</t>
+  </si>
+  <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>and it follows from it to other modules to compile them into a single bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. It reads index.js
+2. Then it goes to other modules from there to bundle them.
+3. Webpack provide path of bundled files to plugins including our HWP
+4. HWP inject these bundle into scrip tags in Public/Index.js template file.
+5. </t>
+  </si>
+  <si>
+    <t>registerServiceWorker.js</t>
+  </si>
+  <si>
+    <t>It's all about adding offline capabilities to your site.</t>
+  </si>
+  <si>
+    <t>React creates a service worker for you without your configuration by default. </t>
+  </si>
+  <si>
+    <t>more here</t>
+  </si>
+  <si>
+    <r>
+      <t>combineReducers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The combineReducers helper function turns an object whose values are different reducing functions into a single reducing function you can pass to createStore()</t>
+    </r>
+  </si>
+  <si>
+    <t>We can have same action handled in multiple reducers</t>
+  </si>
+  <si>
+    <t>No one to one mapping between reducer and action</t>
+  </si>
+  <si>
+    <t>Accessing their DOM nodes may be unavoidable for managing focus, selection, or animations.</t>
+  </si>
+  <si>
+    <t>1. Regular function or class components don’t receive the ref argument, and ref is not available in props either.
+2. Ref forwarding is not limited to DOM components. You can forward refs to class component instances, too.</t>
+  </si>
+  <si>
+    <t>more about dynamic routing here</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To change route dynamically: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>props.history.push('/game')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+we can also pass an object to push ==&gt; {pathname: '/path', search: '?name=ghan', state: { somedata}}
+search object is used to pass params to push</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Redirect from="/invoices" to="/invoices/dashboard" /&gt;, import from 'react-router'</t>
+  </si>
+  <si>
+    <t>props.match.path ==&gt; path pattern used to match, useful for building nested &lt;Route&gt;s</t>
+  </si>
+  <si>
+    <t>props.match.url ==&gt; matched portion of the url, useful for building nested &lt;Link&gt;s</t>
+  </si>
+  <si>
+    <t>HOCs</t>
+  </si>
+  <si>
+    <t>1. Easy to set up
+2. Less boiler plate code
+3. They are also more predictable as fewer things can go wrong with updating state and passing props through.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Better to compose
+2. No callback hell </t>
+  </si>
+  <si>
+    <t>using React.lazy()</t>
+  </si>
+  <si>
+    <r>
+      <t>syntactic sugar for the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>React.createElement()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> function, giving us expressiveness of JavaScript along with HTML like template syntax.</t>
+    </r>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>nesting</t>
+  </si>
+  <si>
+    <t>@import'</t>
+  </si>
+  <si>
+    <t>@mixin, '@include</t>
+  </si>
+  <si>
+    <t>@extend</t>
+  </si>
+  <si>
+    <t>meta tag</t>
+  </si>
+  <si>
+    <t>box sizing: borderbox</t>
+  </si>
+  <si>
+    <t>col define: 12 column 100%</t>
+  </si>
+  <si>
+    <t>clear float after row</t>
+  </si>
+  <si>
+    <t>all col add upto and within row</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>max-width:100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1899,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.3"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1698,7 +1947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1706,12 +1955,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,13 +2062,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1815,6 +2116,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1846,8 +2153,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171109</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>552109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1884,13 +2191,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>89865</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2216,7 +2523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -2400,10 +2707,10 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,575 +2789,602 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D20" s="51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="19" t="s">
+    <row r="21" spans="2:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="38"/>
+        <v>51</v>
+      </c>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="8" t="s">
+    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+    <row r="36" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D39" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D41" s="49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="36"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="49"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="49"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="36"/>
-    </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="49"/>
+    </row>
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="36"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="49"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D49" s="50" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="50"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>176</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="C52" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C53" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C56" s="8" t="s">
+    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
+    <row r="66" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="C66" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-    </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="19" t="s">
+    <row r="70" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C73" s="11" t="s">
+    <row r="74" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="C74" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C78" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C79" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C80" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
+    <row r="82" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="34" t="s">
+      <c r="D82" s="48" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="34"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="D83" s="48"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>109</v>
-      </c>
-      <c r="D84" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="D84" s="48"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="34"/>
+        <v>109</v>
+      </c>
+      <c r="D85" s="48"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="D86" s="48"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="48"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B91" s="20" t="s">
+    <row r="92" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C93" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C91" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C92" s="20" t="s">
+      <c r="D93" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B94" s="26"/>
+      <c r="C94" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D94" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B95" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
-      <c r="C93" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>194</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+      <c r="D97" t="s">
         <v>195</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+      <c r="D99" t="s">
         <v>197</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="19" t="s">
+      <c r="D102" t="s">
         <v>200</v>
       </c>
-      <c r="D101" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="7" t="s">
+    </row>
+    <row r="106" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" s="48"/>
+    </row>
+    <row r="108" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D108" s="48"/>
+    </row>
+    <row r="109" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" s="48"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" s="48"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="48"/>
+    </row>
+    <row r="112" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>212</v>
       </c>
-      <c r="D105" s="34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>213</v>
-      </c>
-      <c r="D106" s="34"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D107" s="34"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="34"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+      <c r="D112" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>216</v>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D81:D86"/>
-    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="D106:D111"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D82:D87"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="1">
@@ -3065,22 +3399,23 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D62" r:id="rId1"/>
-    <hyperlink ref="D58" r:id="rId2" location="recursing-on-children"/>
-    <hyperlink ref="C69" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
-    <hyperlink ref="C107" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
+    <hyperlink ref="D63" r:id="rId1"/>
+    <hyperlink ref="D59" r:id="rId2" location="recursing-on-children"/>
+    <hyperlink ref="C70" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
+    <hyperlink ref="C110" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
+    <hyperlink ref="C114" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G55"/>
+  <dimension ref="C4:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,6 +3458,9 @@
       <c r="D6" s="17" t="s">
         <v>133</v>
       </c>
+      <c r="E6" s="17" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D7" s="17" t="s">
@@ -3178,13 +3516,13 @@
     </row>
     <row r="14" spans="3:7" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>225</v>
       </c>
       <c r="F14" s="32"/>
     </row>
@@ -3198,36 +3536,45 @@
     </row>
     <row r="17" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="18" spans="3:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="20"/>
       <c r="D18" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="20"/>
       <c r="D19" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="3:7" s="29" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" s="29" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
       <c r="D20" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+        <v>219</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="21" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
@@ -3246,13 +3593,13 @@
       <c r="F23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="52" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D24" s="22"/>
-      <c r="G24" s="39"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D25" s="17" t="s">
@@ -3261,34 +3608,34 @@
       <c r="E25" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="39"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="39"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="39"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="39"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D30" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="39"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="39"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="39"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
@@ -3297,95 +3644,281 @@
       <c r="E34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="39"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="17" t="s">
+      <c r="G34" s="52"/>
+    </row>
+    <row r="35" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="20" t="s">
+    <row r="37" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C47" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E47" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="24" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="17" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" s="17" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E50" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E50" s="21" t="s">
+    <row r="51" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="21" t="s">
+    <row r="52" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E52" s="27" t="s">
+    <row r="53" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E53" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="4:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="E53" s="27" t="s">
+    <row r="54" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E54" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="27" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="27" t="s">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="23" t="s">
-        <v>188</v>
-      </c>
+    <row r="62" spans="3:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="53"/>
+      <c r="G62" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="54"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="75" x14ac:dyDescent="0.35">
+      <c r="C69" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C71" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D73" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D75" s="38"/>
+      <c r="E75" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="G23:G34"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G64:G66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1"/>
+    <hyperlink ref="C48" r:id="rId1"/>
+    <hyperlink ref="D14" r:id="rId2"/>
+    <hyperlink ref="C69" r:id="rId3"/>
+    <hyperlink ref="D71" r:id="rId4" display="https://www.npmjs.com/package/html-webpack-plugin"/>
+    <hyperlink ref="C71" r:id="rId5"/>
+    <hyperlink ref="G74" r:id="rId6"/>
+    <hyperlink ref="G37" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
     <sheet name="React-16.5.2-MainConcepts" sheetId="2" r:id="rId2"/>
     <sheet name="Advanced concepts" sheetId="3" r:id="rId3"/>
-    <sheet name="Sass" sheetId="4" r:id="rId4"/>
+    <sheet name="JavaScript" sheetId="6" r:id="rId4"/>
+    <sheet name="Sass" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="HTML" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="324">
   <si>
     <t>Stateful component</t>
   </si>
@@ -1794,32 +1797,337 @@
     <t>@extend</t>
   </si>
   <si>
-    <t>meta tag</t>
-  </si>
-  <si>
     <t>box sizing: borderbox</t>
   </si>
   <si>
     <t>col define: 12 column 100%</t>
   </si>
   <si>
-    <t>clear float after row</t>
-  </si>
-  <si>
-    <t>all col add upto and within row</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
     <t>max-width:100%</t>
+  </si>
+  <si>
+    <t>all col add upto 12 and within row</t>
+  </si>
+  <si>
+    <t>images, videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio video support </t>
+  </si>
+  <si>
+    <t>application cache and SQL DB</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>supported with flash player</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>support using various api like VML, flash, Silverlight</t>
+  </si>
+  <si>
+    <t>Drag and drop</t>
+  </si>
+  <si>
+    <t>not supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geolocation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not possible to get true location </t>
+  </si>
+  <si>
+    <t>mobile friendly</t>
+  </si>
+  <si>
+    <t>not mobile friendly</t>
+  </si>
+  <si>
+    <t>Vector graphics:  canvas, svg</t>
+  </si>
+  <si>
+    <t>Semantic tags</t>
+  </si>
+  <si>
+    <t>Styled Components</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">styled-components utilises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tagged template literals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to style your components.
+It removes the mapping between components and styles. This means that when you're defining your styles, you're actually creating a normal React component, that has your styles attached to it.</t>
+    </r>
+  </si>
+  <si>
+    <t>withRouter() from 'react-router-dom';</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Primitive data type
+2. Return a unique symbol value
+3. primary purpose: used as an identifier for object properties
+4. </t>
+  </si>
+  <si>
+    <t>let sym1 = Symbol()
+let sym2 = Symbol('foo')
+let sym3 = Symbol('foo')
+foo is ==&gt;  optional description, but for debugging purposes only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Generator fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich content </t>
+  </si>
+  <si>
+    <t>Better symantic</t>
+  </si>
+  <si>
+    <t>Stricter parsing to simlify error handling</t>
+  </si>
+  <si>
+    <t>Bette cross Plateform support</t>
+  </si>
+  <si>
+    <t>Diff bet HTML and HTML5</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>&lt;canvas id="c" width="300" height="300"&gt;&lt;/canvas&gt;
+&lt;script&gt;
+  var canvas = document.getElementById( "c" );
+  var drawing_context = canvas.getContext( "2d" );
+  drawing_context.fillStyle = "blue";
+  drawing_context.fillRect( 50, 50, 100, 100 );
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>LocalStorage</t>
+  </si>
+  <si>
+    <t>documents with different origins will never share the stored objects</t>
+  </si>
+  <si>
+    <t>sessionStorage</t>
+  </si>
+  <si>
+    <t>sessionStorage is also scoped on a per-window basis. If a user has two browser tabs displaying documents from the same origin, those two tabs have separate sessionStorage data: the scripts running in one tab cannot read or overwrite the data written by scripts in the other tab, even if both tabs are visiting exactly the same page and are running exactly the same scripts.</t>
+  </si>
+  <si>
+    <t>If a user has two browser tabs displaying documents from the same origin, those two tabs have shared localStorage data</t>
+  </si>
+  <si>
+    <t>SVG vs Canvas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The &lt;svg&gt; element is a container for SVG graphics. SVG has several methods for drawing paths, boxes, circles, text, and even bitmap images.
+SVG is a language for describing 2D graphics, 
+SVG is XML-based, which means that every element is available within the SVG DOM. You can attach JavaScript event handlers for an element.
+In SVG, each drawn shape is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remembered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as an object. If attributes of an SVG object are changed, the browser can automatically re-render the shape.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;canvas&gt; allows you to draw 2D graphics on the fly using JavaScript.
+Canvas is rendered pixel by pixel. In canvas, once the graphic is drawn, it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forgotten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by the browser. If its position should be changed, the entire scene needs to be redrawn, including any objects that might have been covered by the graphic.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Resonsive layout</t>
+  </si>
+  <si>
+    <t>float: left</t>
+  </si>
+  <si>
+    <t>Responsive Text</t>
+  </si>
+  <si>
+    <t>vw : viewport width</t>
+  </si>
+  <si>
+    <t>&lt;picture&gt;
+  &lt;source srcset="img_smallflower.jpg" media="(max-width: 600px)"&gt;
+  &lt;source srcset="img_flowers.jpg" media="(max-width: 1500px)"&gt;
+  &lt;source srcset="flowers.jpg"&gt;
+  &lt;img src="img_smallflower.jpg" alt="Flowers"&gt;
+&lt;/picture&gt;</t>
+  </si>
+  <si>
+    <t>meta viewort tag</t>
+  </si>
+  <si>
+    <t>control the page's dimensions and scaling.</t>
+  </si>
+  <si>
+    <t>Size Content to The Viewport</t>
+  </si>
+  <si>
+    <t>1. Do NOT use large fixed width elements
+2. Do NOT let the content rely on a particular viewport width to render well 
+3. Use CSS media queries to apply different styling for small and large screens</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;picture&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element allows you to define different images for different browser window sizes.</t>
+    </r>
+  </si>
+  <si>
+    <t>clear float in row::after</t>
+  </si>
+  <si>
+    <t>Always Design for Mobile First</t>
+  </si>
+  <si>
+    <t>Add breakpoints: media queries</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>parent selector</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2E2F3E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp; always refers to the parent selector when nesting. Think of the &amp; as being removed and replaced with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2E2F3E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*compiled*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2E2F3E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  parent selector. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1932,6 +2240,33 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDC143C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E2F3E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2E2F3E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1975,7 +2310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2100,6 +2435,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2122,6 +2464,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2523,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +3137,7 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="50" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2798,37 +3146,37 @@
       <c r="C10" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -2856,7 +3204,7 @@
       <c r="C20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2864,25 +3212,25 @@
       <c r="C21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="54"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -2979,7 +3327,7 @@
       <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="52" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2987,31 +3335,31 @@
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="49"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
@@ -3025,7 +3373,7 @@
       <c r="C49" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3033,7 +3381,7 @@
       <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="53"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
@@ -3206,7 +3554,7 @@
       <c r="C82" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D82" s="51" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3214,31 +3562,31 @@
       <c r="C83" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="48"/>
+      <c r="D83" s="51"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="48"/>
+      <c r="D84" s="51"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="48"/>
+      <c r="D85" s="51"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="48"/>
+      <c r="D86" s="51"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="48"/>
+      <c r="D87" s="51"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
@@ -3328,7 +3676,7 @@
       <c r="C106" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D106" s="48" t="s">
+      <c r="D106" s="51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3336,28 +3684,28 @@
       <c r="C107" t="s">
         <v>211</v>
       </c>
-      <c r="D107" s="48"/>
+      <c r="D107" s="51"/>
     </row>
     <row r="108" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C108" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="D108" s="48"/>
+      <c r="D108" s="51"/>
     </row>
     <row r="109" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D109" s="48"/>
+      <c r="D109" s="51"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D110" s="48"/>
+      <c r="D110" s="51"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="48"/>
+      <c r="D111" s="51"/>
     </row>
     <row r="112" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
@@ -3367,14 +3715,22 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="12" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>287</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3404,9 +3760,10 @@
     <hyperlink ref="C70" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
     <hyperlink ref="C110" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
     <hyperlink ref="C114" r:id="rId5"/>
+    <hyperlink ref="D116" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3415,7 +3772,7 @@
   <dimension ref="C4:G75"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,13 +3950,13 @@
       <c r="F23" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="55" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D24" s="22"/>
-      <c r="G24" s="52"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D25" s="17" t="s">
@@ -3608,34 +3965,34 @@
       <c r="E25" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="52"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="52"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="52"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="52"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D30" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="52"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="52"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="52"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
@@ -3644,7 +4001,7 @@
       <c r="E34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="37" t="s">
@@ -3729,42 +4086,42 @@
       <c r="D62" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="35" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="53" t="s">
+      <c r="E63" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="53"/>
+      <c r="F63" s="56"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="53" t="s">
+      <c r="E64" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54" t="s">
+      <c r="F64" s="56"/>
+      <c r="G64" s="57" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="57"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="57"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="20" t="s">
@@ -3852,73 +4209,354 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D19"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="48"/>
+    <col min="2" max="2" width="13.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="48"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="46" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="46" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="46" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>271</v>
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D12" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D17" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D16" s="47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C18" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="diff bet HTML and HTML5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5310" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5310" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Advanced concepts" sheetId="3" r:id="rId3"/>
     <sheet name="JavaScript" sheetId="6" r:id="rId4"/>
     <sheet name="Sass" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="CSS" sheetId="8" r:id="rId6"/>
     <sheet name="HTML" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="344">
   <si>
     <t>Stateful component</t>
   </si>
@@ -1369,9 +1369,6 @@
     <t>Commonly, you might want to test whether a component renders correctly for given props.</t>
   </si>
   <si>
-    <t>installation</t>
-  </si>
-  <si>
     <t>1.   "jest"
 2.    "@babel/preset-env"
 3.    "@babel/preset-react"
@@ -2122,12 +2119,172 @@
       <t xml:space="preserve">  parent selector. </t>
     </r>
   </si>
+  <si>
+    <t>rules, property</t>
+  </si>
+  <si>
+    <t>A partial is simply an Sass file preceded by an underscore. An example is _name-of-file. scss . The underscore tells Sass that the file is a partial and that it should not be compiled to CSS</t>
+  </si>
+  <si>
+    <t>&lt;article&gt;</t>
+  </si>
+  <si>
+    <t>self-contained composition</t>
+  </si>
+  <si>
+    <t>&lt;section&gt;</t>
+  </si>
+  <si>
+    <t>section of a document</t>
+  </si>
+  <si>
+    <t>chapters, the various tabbed pages in a tabbed dialog box, or the numbered sections of a thesis</t>
+  </si>
+  <si>
+    <t>a forum post, a magazine or newspaper article, a blog entry, a user-submitted comment</t>
+  </si>
+  <si>
+    <t>Principals</t>
+  </si>
+  <si>
+    <t>1) Single source of truth</t>
+  </si>
+  <si>
+    <t>The state of your whole application is stored in an object tree within a single store.</t>
+  </si>
+  <si>
+    <t>2) State is read-only</t>
+  </si>
+  <si>
+    <t>The only way to change the state is to emit an action, an object describing what happened.</t>
+  </si>
+  <si>
+    <t>3) Changes are made with pure functions</t>
+  </si>
+  <si>
+    <t>To specify how the state tree is transformed by actions, you write pure reducers.</t>
+  </si>
+  <si>
+    <t>1) Plain JavaScript object
+2) Describes what happened</t>
+  </si>
+  <si>
+    <t>Testing Strategy</t>
+  </si>
+  <si>
+    <t>1) Basic smoke test ==&gt;  mounts a component and makes sure that it didn’t throw during rendering</t>
+  </si>
+  <si>
+    <t>import React from 'react';
+import ReactDOM from 'react-dom';
+import App from './App';
+it('renders without crashing', () =&gt; {
+       const div = document.createElement('div');
+       ReactDOM.render(&lt;App /&gt;, div);
+});</t>
+  </si>
+  <si>
+    <t>Code Snippets</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>react-testing-library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is well suited for unit, integration, and end-to-end testing of React components and applications. It works more directly with DOM nodes, and therefore it's recommended to use with jest-dom for improved assertions.
+installation: (If you use Create React App, Jest is already included out of the box with useful defaults.)
+1) Installed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>react-testing-library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jest-dom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Created </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setupTests.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file to avoid boilerplate in your test files
+3) </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2267,6 +2424,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Bell MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2310,7 +2482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2364,16 +2536,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2441,8 +2607,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2450,9 +2628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2465,11 +2640,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2501,8 +2701,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>552109</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3055,10 +3255,10 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3069,20 +3269,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>45</v>
@@ -3090,95 +3291,113 @@
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="62" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="18"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="18"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="18"/>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="18"/>
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="19" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="18"/>
+      <c r="E6" s="60"/>
+    </row>
+    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="19" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="18"/>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="18"/>
+      <c r="E8" s="60"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="E9" s="66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="50"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="66"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="66"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="66"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="66"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="50"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="66"/>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>40</v>
       </c>
@@ -3186,58 +3405,63 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="54"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="55"/>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="55"/>
+      <c r="E22" s="67"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="54"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="55"/>
+      <c r="E23" s="67"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="54"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="55"/>
+      <c r="E24" s="67"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
         <v>169</v>
       </c>
@@ -3245,12 +3469,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
@@ -3258,153 +3482,161 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="19" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="18"/>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="19" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+      <c r="E31" s="60"/>
+    </row>
+    <row r="32" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C32" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="141.75" x14ac:dyDescent="0.3">
       <c r="C36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C39" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="52"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="54"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="52"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="54"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="52"/>
-    </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="54"/>
+    </row>
+    <row r="45" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="52"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="54"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="52"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="54"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="54"/>
+      <c r="E49" s="68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="53"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="54"/>
+      <c r="E50" s="68"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>176</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" s="19" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
       <c r="C52" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="D52" s="18"/>
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="2:5" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
       <c r="C53" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="18"/>
+      <c r="E53" s="65" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>77</v>
       </c>
@@ -3412,78 +3644,78 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="63" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>95</v>
       </c>
@@ -3491,12 +3723,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="18"/>
+      <c r="E70" s="60"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>94</v>
       </c>
@@ -3504,245 +3738,299 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="126" x14ac:dyDescent="0.3">
       <c r="C74" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="E74" s="65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="C79" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="C80" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C82" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="51"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="53"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="51"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="53"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="51"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="53"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="51"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="53"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="51"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="53"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B92" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E92" s="60"/>
+    </row>
+    <row r="93" spans="2:5" ht="75.75" x14ac:dyDescent="0.3">
       <c r="C93" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D93" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="105" x14ac:dyDescent="0.3">
+      <c r="B94" s="24"/>
+      <c r="C94" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" s="19" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B95" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D95" s="51"/>
+      <c r="E95" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="60"/>
+    </row>
+    <row r="97" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="60"/>
+    </row>
+    <row r="98" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="60"/>
+    </row>
+    <row r="99" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="60"/>
+    </row>
+    <row r="100" spans="2:5" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.3">
+      <c r="B100" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="D100" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="60"/>
+    </row>
+    <row r="101" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B94" s="26"/>
-      <c r="C94" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B95" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="102" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
         <v>194</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D102" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="104" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
         <v>196</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D104" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
+    <row r="105" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="D105" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="19" t="s">
+    <row r="107" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C107" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D107" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B106" s="20" t="s">
+    <row r="111" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B111" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="18" t="s">
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" s="53"/>
+    </row>
+    <row r="113" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D113" s="53"/>
+      <c r="E113" s="60"/>
+    </row>
+    <row r="114" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="53"/>
+      <c r="E114" s="60"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C115" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="53"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D116" s="53"/>
+    </row>
+    <row r="117" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="D106" s="51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>211</v>
-      </c>
-      <c r="D107" s="51"/>
-    </row>
-    <row r="108" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D108" s="51"/>
-    </row>
-    <row r="109" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D109" s="51"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="12" t="s">
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
         <v>213</v>
       </c>
-      <c r="D110" s="51"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="51"/>
-    </row>
-    <row r="112" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>287</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>244</v>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C119" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>286</v>
+      </c>
+      <c r="D121" s="63" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="D106:D111"/>
+  <mergeCells count="8">
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D111:D116"/>
     <mergeCell ref="D41:D46"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="D82:D87"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3758,9 +4046,9 @@
     <hyperlink ref="D63" r:id="rId1"/>
     <hyperlink ref="D59" r:id="rId2" location="recursing-on-children"/>
     <hyperlink ref="C70" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
-    <hyperlink ref="C110" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
-    <hyperlink ref="C114" r:id="rId5"/>
-    <hyperlink ref="D116" r:id="rId6"/>
+    <hyperlink ref="C115" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
+    <hyperlink ref="C119" r:id="rId5"/>
+    <hyperlink ref="D121" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -3771,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,7 +4069,7 @@
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
     <col min="4" max="4" width="50.28515625" style="17" customWidth="1"/>
     <col min="5" max="5" width="51.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="51" customWidth="1"/>
     <col min="7" max="7" width="37.85546875" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
@@ -3796,18 +4084,18 @@
       <c r="E4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="51" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D5" s="17" t="s">
         <v>130</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3816,7 +4104,7 @@
         <v>133</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -3834,7 +4122,7 @@
       <c r="E9" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="51" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -3845,7 +4133,7 @@
       <c r="E10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="51" t="s">
         <v>138</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -3867,75 +4155,75 @@
       <c r="D13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="51" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="3:7" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="29" t="s">
+      <c r="F19" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" s="27" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" s="29" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="F20" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
-      <c r="F21" s="28"/>
+      <c r="F21" s="51"/>
     </row>
     <row r="23" spans="3:7" ht="225" x14ac:dyDescent="0.25">
       <c r="C23" s="20" t="s">
@@ -3947,52 +4235,75 @@
       <c r="E23" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="56" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="22"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="17" t="s">
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="56"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="55"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="17" t="s">
+      <c r="G30" s="56"/>
+    </row>
+    <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="55"/>
+      <c r="E31" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="55"/>
+      <c r="G32" s="56"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="55"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
@@ -4001,25 +4312,27 @@
       <c r="E34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="55"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="35" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G37" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="51"/>
+    </row>
     <row r="47" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C47" s="20" t="s">
         <v>157</v>
@@ -4027,12 +4340,12 @@
       <c r="D47" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="35" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4060,127 +4373,126 @@
       </c>
     </row>
     <row r="53" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="E54" s="27" t="s">
-        <v>245</v>
+      <c r="E54" s="25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="25" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="22" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="E62" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="F62" s="57"/>
+      <c r="G62" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="56" t="s">
+      <c r="F63" s="57"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="F63" s="56"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="56" t="s">
+      <c r="F64" s="57"/>
+      <c r="G64" s="58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F64" s="56"/>
-      <c r="G64" s="57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="56" t="s">
+      <c r="F65" s="57"/>
+      <c r="G65" s="58"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="F65" s="56"/>
-      <c r="G65" s="57"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="56"/>
-      <c r="G66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="58"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="3:7" ht="75" x14ac:dyDescent="0.35">
       <c r="C69" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="36" t="s">
+    </row>
+    <row r="71" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C71" s="39" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="71" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C71" s="41" t="s">
+      <c r="D71" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="40" t="s">
+    </row>
+    <row r="72" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D72" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E71" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="17" t="s">
+      <c r="E72" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="F72" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="F72" s="17" t="s">
+    </row>
+    <row r="73" spans="3:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D73" s="35" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D73" s="37" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D74" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="G74" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D75" s="36"/>
+      <c r="E75" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="G74" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D75" s="38"/>
-      <c r="E75" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
+      <c r="G75" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4212,38 +4524,38 @@
   <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="48"/>
-    <col min="2" max="2" width="13.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="48" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="9.140625" style="46"/>
+    <col min="2" max="2" width="13.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="E3" s="45" t="s">
         <v>289</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>291</v>
+      <c r="B7" s="46" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4256,8 +4568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,46 +4580,52 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C5" s="44" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="46" t="s">
+      <c r="D5" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="44" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="46" t="s">
-        <v>264</v>
-      </c>
-    </row>
     <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>322</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4334,82 +4652,82 @@
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D12" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>312</v>
+      <c r="D12" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
         <v>310</v>
-      </c>
-      <c r="E13" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>315</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4422,134 +4740,158 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F20"/>
+  <dimension ref="C3:F22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>272</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" t="s">
         <v>270</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="48" t="s">
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>279</v>
-      </c>
-      <c r="E8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
         <v>281</v>
       </c>
-      <c r="E9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="3:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="C15" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="F13" s="18" t="s">
+    </row>
+    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="20" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
+      <c r="D17" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="D15" s="47" t="s">
+    </row>
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="20" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D16" s="47" t="s">
+      <c r="D20" s="45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="D22" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="E22" s="45" t="s">
         <v>306</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="5310" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="3390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
     <sheet name="React-16.5.2-MainConcepts" sheetId="2" r:id="rId2"/>
     <sheet name="Advanced concepts" sheetId="3" r:id="rId3"/>
-    <sheet name="JavaScript" sheetId="6" r:id="rId4"/>
-    <sheet name="Sass" sheetId="4" r:id="rId5"/>
-    <sheet name="CSS" sheetId="8" r:id="rId6"/>
-    <sheet name="HTML" sheetId="5" r:id="rId7"/>
+    <sheet name="LifecycleMethods" sheetId="9" r:id="rId4"/>
+    <sheet name="JavaScript" sheetId="6" r:id="rId5"/>
+    <sheet name="Sass" sheetId="4" r:id="rId6"/>
+    <sheet name="CSS" sheetId="8" r:id="rId7"/>
+    <sheet name="HTML" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="377">
   <si>
     <t>Stateful component</t>
   </si>
@@ -2172,9 +2173,6 @@
     <t>Testing Strategy</t>
   </si>
   <si>
-    <t>1) Basic smoke test ==&gt;  mounts a component and makes sure that it didn’t throw during rendering</t>
-  </si>
-  <si>
     <t>import React from 'react';
 import ReactDOM from 'react-dom';
 import App from './App';
@@ -2279,12 +2277,181 @@
 3) </t>
     </r>
   </si>
+  <si>
+    <t>Components are idempotent functions, describe your UI at any point of time, just like a server rendered app.</t>
+  </si>
+  <si>
+    <t>virtual DOM</t>
+  </si>
+  <si>
+    <t>1) Basic smoke test ==&gt;  mounts a component and makes sure that it didn’t throw during rendering
+They range from a
+“smoke test” verifying that a component renders without throwing,
+to shallow rendering and testing some of the output, 
+to full rendering and testing component lifecycle and state changes.
+TDD: write test -&gt; watch it fail -&gt; implement -&gt; watch it pass -&gt; refactor -&gt; repeat
+BDD: initialize state -&gt; change state -&gt; verify new state</t>
+  </si>
+  <si>
+    <t>Testable components:
+1) Favor pure components for UI code.
+2) Isolate application logic/business rules in pure reducer functions.
+3) Isolate side effects using container components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+function MyMap(fn, context){
+    let array = [...this];
+    fn = context &amp;&amp; fn.bind(context) || fn;
+    for(let i = 0; i &lt; array.length; i++)
+    {
+        let item = array[i];
+        array[i] = fn(item, i, this);
+    }
+    return array;
+}
+Array.prototype.MyMap = MyMap;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own MAP function </t>
+  </si>
+  <si>
+    <t>PUT vs PATCH</t>
+  </si>
+  <si>
+    <t>https://rapidapi.com/blog/put-vs-patch/</t>
+  </si>
+  <si>
+    <t>New will be created</t>
+  </si>
+  <si>
+    <t>Entire resource =&gt; not present already</t>
+  </si>
+  <si>
+    <t>Entire resource =&gt; present already</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will replace the exisiting </t>
+  </si>
+  <si>
+    <t>PATCH ==&gt; Partial update</t>
+  </si>
+  <si>
+    <t>PUT ==&gt; Full resource updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial resource </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will update the exisiting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial resource </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource doesn’t exist  </t>
+  </si>
+  <si>
+    <t>will fail</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>var promise = new Promise(function(resolve, reject) {
+  // do a thing, possibly async, then…
+  if (/* everything turned out fine */) {
+    resolve("Stuff worked!");
+  }
+  else {
+    reject(Error("It broke"));
+  }
+});</t>
+  </si>
+  <si>
+    <t>1. Fullfilled
+2. Rejected
+3. Pending
+4. Settled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra field in resource </t>
+  </si>
+  <si>
+    <t>will be created an extra field</t>
+  </si>
+  <si>
+    <t>1. either fullfiled or rejected,
+2. no transition from fullfiled to rejected or vice versa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method  </t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getSnapshotBeforeUpdate(prevProps, prevState) {}
+</t>
+  </si>
+  <si>
+    <t>componentDidUpdate(prevProps, prevState, snapshot) {}</t>
+  </si>
+  <si>
+    <t>class ScrollingList extends React.Component {
+  listRef = null;
+  getSnapshotBeforeUpdate(prevProps, prevState) {
+    // Are we adding new items to the list?
+    // Capture the scroll position so we can adjust scroll later.
+    if (prevProps.list.length &lt; this.props.list.length) {
+      return (
+        this.listRef.scrollHeight - this.listRef.scrollTop
+      );
+    }
+    return null;
+  }
+  componentDidUpdate(prevProps, prevState, snapshot) {
+    // If we have a snapshot value, we've just added new items.
+    // Adjust scroll so these new items don't push the old ones out of view.
+    // (snapshot here is the value returned from getSnapshotBeforeUpdate)
+    if (snapshot !== null) {
+      this.listRef.scrollTop =
+        this.listRef.scrollHeight - snapshot;
+    }
+  }
+  render() {
+    return (
+      &lt;div ref={this.setListRef}&gt;
+        {/* ...contents... */}
+      &lt;/div&gt;
+    );
+  }
+  setListRef = ref =&gt; {
+    this.listRef = ref;
+  };
+}</t>
+  </si>
+  <si>
+    <t>Capture the scroll position so we can adjust scroll later.
+Snapshot ==&gt; value returned from getSnapshotBeforeUpdate</t>
+  </si>
+  <si>
+    <t>Use the snapshot returned by the getSnapshotBeforeUpdate and update the scroll position of refs .</t>
+  </si>
+  <si>
+    <t>static getDerivedStateFromProps(props, state) {
+    returns Object/null;
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2439,8 +2606,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2450,6 +2631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,7 +2669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2623,22 +2810,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2659,6 +2831,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2668,8 +2852,32 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2771,6 +2979,49 @@
         <a:xfrm>
           <a:off x="13218583" y="12382500"/>
           <a:ext cx="6916115" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>599238</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>704476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="762000"/>
+          <a:ext cx="6695238" cy="2990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3071,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,8 +3496,13 @@
         <v>120</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="62" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -3262,17 +3518,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3280,7 +3539,7 @@
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3291,16 +3550,16 @@
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="64" t="s">
-        <v>342</v>
+      <c r="E1" s="59" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="18"/>
-      <c r="E2" s="60"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -3310,7 +3569,7 @@
         <v>165</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="60"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
@@ -3318,7 +3577,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="60"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
@@ -3326,7 +3585,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="60"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -3334,7 +3593,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="60"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
@@ -3342,12 +3601,12 @@
         <v>173</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="60"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="60"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -3356,7 +3615,7 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3365,37 +3624,37 @@
       <c r="C10" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="66"/>
+      <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="66"/>
+      <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="66"/>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
@@ -3423,8 +3682,8 @@
       <c r="C20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="66" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="65" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3432,29 +3691,29 @@
       <c r="C21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="67"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="67"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="67"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
@@ -3485,525 +3744,535 @@
     <row r="30" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="19" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="60"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="60"/>
-    </row>
-    <row r="32" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="35" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E35" s="60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="141.75" x14ac:dyDescent="0.3">
-      <c r="C36" s="9" t="s">
+    <row r="37" spans="2:5" ht="141.75" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E37" s="60" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="15" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D42" s="69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="54"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="69"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="54"/>
-    </row>
-    <row r="45" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="69"/>
+    </row>
+    <row r="46" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="54"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="54"/>
+      <c r="D46" s="69"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="69"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="68" t="s">
+      <c r="D50" s="69"/>
+      <c r="E50" s="67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="68"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
+      <c r="D51" s="69"/>
+      <c r="E51" s="67"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>176</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:5" s="19" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="18" t="s">
+    <row r="53" spans="2:5" s="19" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="C53" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="60"/>
-    </row>
-    <row r="53" spans="2:5" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="18"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="2:5" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
+      <c r="C54" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="65" t="s">
+      <c r="D54" s="18"/>
+      <c r="E54" s="60" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C57" s="8" t="s">
+    <row r="58" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C58" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="7" t="s">
+    <row r="60" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D60" s="58" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="64" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="63" t="s">
+      <c r="D64" s="58" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="C66" s="10" t="s">
+    <row r="67" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="65" t="s">
+      <c r="E67" s="60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-    </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C70" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="19" t="s">
+    <row r="71" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="60"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="7" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="55"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="126" x14ac:dyDescent="0.3">
-      <c r="C74" s="11" t="s">
+    <row r="75" spans="2:5" ht="126" x14ac:dyDescent="0.3">
+      <c r="C75" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="E75" s="60" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="C79" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="C80" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="C81" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="7" t="s">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D83" s="68" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="53"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>108</v>
-      </c>
-      <c r="D84" s="53"/>
+        <v>107</v>
+      </c>
+      <c r="D84" s="68"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>109</v>
-      </c>
-      <c r="D85" s="53"/>
+        <v>108</v>
+      </c>
+      <c r="D85" s="68"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86" s="53"/>
+        <v>109</v>
+      </c>
+      <c r="D86" s="68"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="53"/>
+        <v>111</v>
+      </c>
+      <c r="D87" s="68"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="68"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="2:5" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="B92" s="20" t="s">
+    <row r="93" spans="2:5" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="B93" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C93" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="51" t="s">
+      <c r="D93" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="E92" s="60"/>
-    </row>
-    <row r="93" spans="2:5" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="C93" s="20" t="s">
+      <c r="E93" s="55"/>
+    </row>
+    <row r="94" spans="2:5" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="C94" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D94" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="B94" s="24"/>
-      <c r="C94" s="24" t="s">
+    <row r="95" spans="2:5" ht="105" x14ac:dyDescent="0.3">
+      <c r="B95" s="24"/>
+      <c r="C95" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D95" s="51" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="2:5" s="19" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="B95" s="20" t="s">
+    <row r="96" spans="2:5" s="19" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B96" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C96" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="D96" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="E96" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="D95" s="51"/>
-      <c r="E95" s="61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="60"/>
     </row>
     <row r="97" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="52"/>
       <c r="C97" s="52"/>
       <c r="D97" s="51"/>
-      <c r="E97" s="60"/>
+      <c r="E97" s="55"/>
     </row>
     <row r="98" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="52"/>
       <c r="C98" s="52"/>
       <c r="D98" s="51"/>
-      <c r="E98" s="60"/>
+      <c r="E98" s="55"/>
     </row>
     <row r="99" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="52"/>
       <c r="C99" s="52"/>
       <c r="D99" s="51"/>
-      <c r="E99" s="60"/>
-    </row>
-    <row r="100" spans="2:5" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.3">
-      <c r="B100" s="20" t="s">
+      <c r="E99" s="55"/>
+    </row>
+    <row r="100" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="55"/>
+    </row>
+    <row r="101" spans="2:5" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.3">
+      <c r="B101" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="D100" s="69" t="s">
+      <c r="C101" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="E100" s="60"/>
-    </row>
-    <row r="101" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+      <c r="E101" s="55"/>
+    </row>
+    <row r="102" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
         <v>193</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D102" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+    <row r="103" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
         <v>194</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D103" s="18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
+    <row r="105" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
         <v>196</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D105" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="D105" s="18" t="s">
+    <row r="106" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="D106" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C107" s="19" t="s">
+    <row r="108" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="C108" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D108" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B111" s="20" t="s">
+    <row r="112" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="B112" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C112" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D112" s="68" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
         <v>210</v>
       </c>
-      <c r="D112" s="53"/>
-    </row>
-    <row r="113" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D113" s="53"/>
-      <c r="E113" s="60"/>
+      <c r="D113" s="68"/>
     </row>
     <row r="114" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C114" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="68"/>
+      <c r="E114" s="55"/>
+    </row>
+    <row r="115" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D114" s="53"/>
-      <c r="E114" s="60"/>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C115" s="12" t="s">
+      <c r="D115" s="68"/>
+      <c r="E115" s="55"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C116" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D115" s="53"/>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D116" s="53"/>
-    </row>
-    <row r="117" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
+      <c r="D116" s="68"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D117" s="68"/>
+    </row>
+    <row r="118" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
         <v>211</v>
       </c>
-      <c r="E117" s="65" t="s">
+      <c r="E118" s="60" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C119" s="12" t="s">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C120" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
         <v>286</v>
       </c>
-      <c r="D121" s="63" t="s">
+      <c r="D122" s="58" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4011,12 +4280,12 @@
   <mergeCells count="8">
     <mergeCell ref="E9:E15"/>
     <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D112:D117"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="D50:D51"/>
     <mergeCell ref="D20:D24"/>
-    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="D83:D88"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="colorScale" priority="2">
@@ -4043,12 +4312,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D63" r:id="rId1"/>
-    <hyperlink ref="D59" r:id="rId2" location="recursing-on-children"/>
-    <hyperlink ref="C70" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
-    <hyperlink ref="C115" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
-    <hyperlink ref="C119" r:id="rId5"/>
-    <hyperlink ref="D121" r:id="rId6"/>
+    <hyperlink ref="D64" r:id="rId1"/>
+    <hyperlink ref="D60" r:id="rId2" location="recursing-on-children"/>
+    <hyperlink ref="C71" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
+    <hyperlink ref="C116" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
+    <hyperlink ref="C120" r:id="rId5"/>
+    <hyperlink ref="D122" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -4059,8 +4328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,15 +4507,15 @@
       <c r="F23" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="56"/>
+      <c r="G24" s="71"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="54" t="s">
         <v>331</v>
       </c>
       <c r="E25" s="52" t="s">
@@ -4255,7 +4524,7 @@
       <c r="F25" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E26" s="17" t="s">
@@ -4264,7 +4533,7 @@
       <c r="F26" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="71"/>
     </row>
     <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="17" t="s">
@@ -4273,10 +4542,10 @@
       <c r="F27" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="71"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="56"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D29" s="17" t="s">
@@ -4285,10 +4554,10 @@
       <c r="E29" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="56"/>
+      <c r="G30" s="71"/>
     </row>
     <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D31" s="17" t="s">
@@ -4297,13 +4566,13 @@
       <c r="E31" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="56"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="56"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
@@ -4312,7 +4581,7 @@
       <c r="E34" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="71"/>
     </row>
     <row r="35" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="35" t="s">
@@ -4399,42 +4668,42 @@
       <c r="D62" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="F62" s="57"/>
+      <c r="F62" s="72"/>
       <c r="G62" s="33" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="57"/>
+      <c r="F63" s="72"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="F64" s="57"/>
-      <c r="G64" s="58" t="s">
+      <c r="F64" s="72"/>
+      <c r="G64" s="73" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="58"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="F66" s="57"/>
-      <c r="G66" s="58"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="20" t="s">
@@ -4521,23 +4790,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="52"/>
+    <col min="2" max="2" width="51.7109375" style="52" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="76" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="46"/>
-    <col min="2" max="2" width="13.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="46" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" style="46" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>287</v>
       </c>
@@ -4554,17 +4889,107 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="20" t="s">
         <v>290</v>
       </c>
     </row>
+    <row r="8" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="46" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
@@ -4634,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:G18"/>
   <sheetViews>
@@ -4738,7 +5163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F22"/>
   <sheetViews>

--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="3390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="3390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,17 @@
     <sheet name="Sass" sheetId="4" r:id="rId6"/>
     <sheet name="CSS" sheetId="8" r:id="rId7"/>
     <sheet name="HTML" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="443">
   <si>
     <t>Stateful component</t>
   </si>
@@ -1655,13 +1656,6 @@
     <t>and it follows from it to other modules to compile them into a single bundle</t>
   </si>
   <si>
-    <t xml:space="preserve">1. It reads index.js
-2. Then it goes to other modules from there to bundle them.
-3. Webpack provide path of bundled files to plugins including our HWP
-4. HWP inject these bundle into scrip tags in Public/Index.js template file.
-5. </t>
-  </si>
-  <si>
     <t>registerServiceWorker.js</t>
   </si>
   <si>
@@ -1916,9 +1910,6 @@
   </si>
   <si>
     <t>Stricter parsing to simlify error handling</t>
-  </si>
-  <si>
-    <t>Bette cross Plateform support</t>
   </si>
   <si>
     <t>Diff bet HTML and HTML5</t>
@@ -1955,36 +1946,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The &lt;svg&gt; element is a container for SVG graphics. SVG has several methods for drawing paths, boxes, circles, text, and even bitmap images.
-SVG is a language for describing 2D graphics, 
-SVG is XML-based, which means that every element is available within the SVG DOM. You can attach JavaScript event handlers for an element.
-In SVG, each drawn shape is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>remembered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as an object. If attributes of an SVG object are changed, the browser can automatically re-render the shape.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">&lt;canvas&gt; allows you to draw 2D graphics on the fly using JavaScript.
 Canvas is rendered pixel by pixel. In canvas, once the graphic is drawn, it is </t>
     </r>
@@ -2119,9 +2080,6 @@
       </rPr>
       <t xml:space="preserve">  parent selector. </t>
     </r>
-  </si>
-  <si>
-    <t>rules, property</t>
   </si>
   <si>
     <t>A partial is simply an Sass file preceded by an underscore. An example is _name-of-file. scss . The underscore tells Sass that the file is a partial and that it should not be compiled to CSS</t>
@@ -2446,11 +2404,264 @@
     returns Object/null;
 }</t>
   </si>
+  <si>
+    <t>Functional vs OOP</t>
+  </si>
+  <si>
+    <t>OOP ===&gt; new things ---&gt; classes</t>
+  </si>
+  <si>
+    <t>Functional ==&gt; new Operations--&gt; fn</t>
+  </si>
+  <si>
+    <t>Array Methods</t>
+  </si>
+  <si>
+    <t>.some()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if one or more of its values correspond to something you’re looking for, returns true and stops finding after first match </t>
+  </si>
+  <si>
+    <t>.every()</t>
+  </si>
+  <si>
+    <t>It works exactly like .some(), but will return true only if every occurence match.</t>
+  </si>
+  <si>
+    <t>.find()</t>
+  </si>
+  <si>
+    <t>find first match and returns it.</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>1. Eager
+2. Async
+3. Single Value
+4. No operator</t>
+  </si>
+  <si>
+    <t>Lazy
+Async/Sync
+0-multiple Values
+Operators</t>
+  </si>
+  <si>
+    <t>Better cross Plateform support</t>
+  </si>
+  <si>
+    <t>JSON.parse while getting data</t>
+  </si>
+  <si>
+    <t>We can store objects,
+JSON.strigify while set</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The &lt;svg&gt; element is a container for SVG graphics. 
+SVG has several methods for drawing paths, boxes, circles, text, and even bitmap images.
+SVG is a language for describing 2D graphics, 
+SVG is XML-based, which means that every element is available within the SVG DOM.  
+In SVG, each drawn shape is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remembered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as an object. If attributes of an SVG object are changed, the browser can automatically re-render the shape.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>$varnme</t>
+  </si>
+  <si>
+    <t>rules, property(:)</t>
+  </si>
+  <si>
+    <t>diff bet @include and @extend</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. function* g() {} </t>
+  </si>
+  <si>
+    <t>https://medium.com/scaled-agile-framework/exploring-key-elements-of-spotifys-agile-scaling-model-471d2a23d7ea</t>
+  </si>
+  <si>
+    <t>https://theagileadmin.com/what-is-devops/</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Spotify Agile</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D3iu2kfZ3w4</t>
+  </si>
+  <si>
+    <t>Agile Way of Working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">360 degree Agile Way of Working </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cxGXQxsaPy8</t>
+  </si>
+  <si>
+    <t>The Transformation Journey</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EKEaMeaiZOw</t>
+  </si>
+  <si>
+    <t>Orange Code</t>
+  </si>
+  <si>
+    <t>https://www.ing.com/web/file?uuid=62c8f372-82dd-4b4e-809d-33ef9e852790&amp;owner=b03bc017-e0db-4b5d-abbf-003b12934429&amp;contentid=39892</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>Ron Van ===&gt; Think forward strategy: ''We empower people to stay a step ahead in life and in business''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. It reads index.js
+2. Then it goes to other modules from there to bundle them.
+3. Webpack provide path of bundled files to plugins including our HWP
+4. HWP inject these bundle into script tags in Public/Index.js template file.
+5. </t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>WCAG</t>
+  </si>
+  <si>
+    <t>Provides guidelines to build accessible web pages.</t>
+  </si>
+  <si>
+    <t>WAI-ARIA</t>
+  </si>
+  <si>
+    <t>Provides tools and guidelines for accesible JS widgets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accesible forms </t>
+  </si>
+  <si>
+    <t>label: Should be accesible using htmlFor in JSX</t>
+  </si>
+  <si>
+    <t>Notifying the user of errors</t>
+  </si>
+  <si>
+    <t>Focus Control</t>
+  </si>
+  <si>
+    <t>WEB-AIM =&gt; talks about keyboard accessiblity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; Keyboard focus and focus outline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; Programmatically managing focus</t>
+  </si>
+  <si>
+    <t>For example, by resetting keyboard focus to a button that opened a modal window after that modal window is closed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt; Mechanisms to skip to desired content
+</t>
+  </si>
+  <si>
+    <t>SkipLinks, SkpiNavigationLinks
+Use Landmark elements and roles, such as &lt;main&gt; and &lt;aside&gt;,</t>
+  </si>
+  <si>
+    <t>Only ever use CSS that removes this outline, for example by setting outline: 0, if you are replacing it with another focus outline implementation.</t>
+  </si>
+  <si>
+    <t>Web application can be fully operated with the keyboard only</t>
+  </si>
+  <si>
+    <t>shouldComponentUpdate(nextProps, nextState) {
+  return true;
+}</t>
+  </si>
+  <si>
+    <t>Let</t>
+  </si>
+  <si>
+    <t>Block + contained sub blocks</t>
+  </si>
+  <si>
+    <t>More here...</t>
+  </si>
+  <si>
+    <t>Not created on window when in global</t>
+  </si>
+  <si>
+    <t>Initialized &gt;&gt; when a parser evaluates it</t>
+  </si>
+  <si>
+    <t>Temporal dead zone</t>
+  </si>
+  <si>
+    <t>not initialized until their definition is evaluated</t>
+  </si>
+  <si>
+    <t>reference error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Const </t>
+  </si>
+  <si>
+    <t>Object.freeze</t>
+  </si>
+  <si>
+    <t>No re-assignment</t>
+  </si>
+  <si>
+    <t>properties can be changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallow immutable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opposite of Const </t>
+  </si>
+  <si>
+    <t>Re-assignment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2722,60 +2933,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2793,7 +2991,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2843,6 +3040,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2869,15 +3089,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3076,7 +3287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3111,7 +3322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3322,8 +3533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,11 +3709,11 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="56" t="s">
         <v>163</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -3530,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3539,7 +3750,7 @@
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3550,16 +3761,16 @@
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="59" t="s">
-        <v>341</v>
+      <c r="E1" s="53" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="18"/>
-      <c r="E2" s="55"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -3569,7 +3780,7 @@
         <v>165</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="55"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
@@ -3577,7 +3788,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="55"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
@@ -3585,7 +3796,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="55"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
@@ -3593,7 +3804,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="55"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
@@ -3601,12 +3812,12 @@
         <v>173</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="55"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
@@ -3615,49 +3826,49 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="65"/>
+      <c r="C10" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="68"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="68"/>
     </row>
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="C16" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -3682,8 +3893,8 @@
       <c r="C20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="65" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="68" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3691,29 +3902,29 @@
       <c r="C21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
@@ -3744,10 +3955,10 @@
     <row r="30" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
@@ -3755,7 +3966,7 @@
         <v>162</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="55"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
@@ -3763,7 +3974,7 @@
         <v>171</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="55"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C33" s="8" t="s">
@@ -3779,7 +3990,7 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="54" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3792,7 +4003,7 @@
       <c r="C37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="54" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3821,7 +4032,7 @@
       <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="72" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3829,31 +4040,31 @@
       <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="72"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="69"/>
+      <c r="D44" s="72"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="69"/>
+      <c r="D45" s="72"/>
     </row>
     <row r="46" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="C46" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="69"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="69"/>
+      <c r="D47" s="72"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
@@ -3867,8 +4078,8 @@
       <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="67" t="s">
+      <c r="D50" s="72"/>
+      <c r="E50" s="70" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3876,8 +4087,8 @@
       <c r="C51" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="67"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="70"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
@@ -3892,14 +4103,14 @@
         <v>122</v>
       </c>
       <c r="D53" s="18"/>
-      <c r="E53" s="55"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="2:5" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
       <c r="C54" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D54" s="18"/>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="54" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3928,7 +4139,7 @@
       <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="D60" s="52" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3951,7 +4162,7 @@
       <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="52" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3969,7 +4180,7 @@
       <c r="C67" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="54" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3995,13 +4206,13 @@
         <v>124</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="55"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="49"/>
+    </row>
+    <row r="73" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4014,7 +4225,7 @@
       <c r="C75" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E75" s="54" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4055,7 +4266,7 @@
       <c r="C83" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="68" t="s">
+      <c r="D83" s="71" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4063,31 +4274,31 @@
       <c r="C84" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="68"/>
+      <c r="D84" s="71"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="68"/>
+      <c r="D85" s="71"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="68"/>
+      <c r="D86" s="71"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="68"/>
+      <c r="D87" s="71"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="68"/>
+      <c r="D88" s="71"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
@@ -4098,13 +4309,13 @@
       <c r="B93" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="51" t="s">
+      <c r="D93" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E93" s="55"/>
+      <c r="E93" s="49"/>
     </row>
     <row r="94" spans="2:5" ht="75.75" x14ac:dyDescent="0.3">
       <c r="C94" s="20" t="s">
@@ -4115,63 +4326,63 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
-      <c r="C95" s="24" t="s">
+      <c r="B95" s="23"/>
+      <c r="C95" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D95" s="45" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="96" spans="2:5" s="19" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B96" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="C96" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="D96" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="E96" s="56" t="s">
-        <v>340</v>
+        <v>335</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="55"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="49"/>
     </row>
     <row r="98" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="55"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="49"/>
     </row>
     <row r="99" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="55"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="49"/>
     </row>
     <row r="100" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="55"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="49"/>
     </row>
     <row r="101" spans="2:5" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.3">
       <c r="B101" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="D101" s="61" t="s">
+      <c r="C101" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="E101" s="55"/>
+      <c r="E101" s="49"/>
     </row>
     <row r="102" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
@@ -4215,9 +4426,9 @@
         <v>208</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D112" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D112" s="71" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4225,37 +4436,37 @@
       <c r="C113" t="s">
         <v>210</v>
       </c>
-      <c r="D113" s="68"/>
+      <c r="D113" s="71"/>
     </row>
     <row r="114" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C114" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="68"/>
-      <c r="E114" s="55"/>
+        <v>252</v>
+      </c>
+      <c r="D114" s="71"/>
+      <c r="E114" s="49"/>
     </row>
     <row r="115" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C115" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="68"/>
-      <c r="E115" s="55"/>
+        <v>251</v>
+      </c>
+      <c r="D115" s="71"/>
+      <c r="E115" s="49"/>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D116" s="68"/>
+      <c r="D116" s="71"/>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D117" s="68"/>
+      <c r="D117" s="71"/>
     </row>
     <row r="118" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>211</v>
       </c>
-      <c r="E118" s="60" t="s">
-        <v>251</v>
+      <c r="E118" s="54" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.3">
@@ -4265,15 +4476,15 @@
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>286</v>
-      </c>
-      <c r="D122" s="58" t="s">
-        <v>243</v>
+        <v>285</v>
+      </c>
+      <c r="D122" s="52" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4326,10 +4537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G75"/>
+  <dimension ref="C4:G87"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,8 +4548,8 @@
     <col min="1" max="2" width="9.140625" style="17"/>
     <col min="3" max="3" width="31" style="20" customWidth="1"/>
     <col min="4" max="4" width="50.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="45" customWidth="1"/>
     <col min="7" max="7" width="37.85546875" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
@@ -4350,10 +4561,10 @@
       <c r="D4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4361,10 +4572,10 @@
       <c r="D5" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="45" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4372,8 +4583,8 @@
       <c r="D6" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>257</v>
+      <c r="E6" s="63" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -4388,10 +4599,10 @@
       <c r="D9" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="45" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -4399,10 +4610,10 @@
       </c>
     </row>
     <row r="10" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="45" t="s">
         <v>138</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -4413,86 +4624,91 @@
       <c r="D11" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="63" t="s">
         <v>146</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="3:7" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="51"/>
-    </row>
-    <row r="15" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="3:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="63"/>
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="3:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
-      <c r="F16" s="51"/>
-    </row>
-    <row r="17" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="63"/>
+      <c r="F16" s="45"/>
+    </row>
+    <row r="17" spans="3:7" s="26" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="45" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="20"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="51"/>
-    </row>
-    <row r="19" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="63"/>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="3:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="20"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" s="26" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" s="27" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="43" t="s">
+      <c r="F20" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
-      <c r="F21" s="51"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="23" spans="3:7" ht="225" x14ac:dyDescent="0.25">
       <c r="C23" s="20" t="s">
@@ -4501,106 +4717,107 @@
       <c r="D23" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="74" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="71"/>
+      <c r="G24" s="74"/>
     </row>
     <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="74"/>
+    </row>
+    <row r="26" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F27" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="G25" s="71"/>
-    </row>
-    <row r="26" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" s="71"/>
-    </row>
-    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E27" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" s="71"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="71"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D29" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="71"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="71"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D31" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="G31" s="71"/>
+      <c r="E31" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="71"/>
+      <c r="G32" s="74"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="71"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="71"/>
+      <c r="G34" s="74"/>
     </row>
     <row r="35" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="63" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="51"/>
+      <c r="G37" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="63"/>
+      <c r="F44" s="45"/>
     </row>
     <row r="47" spans="3:7" ht="45" x14ac:dyDescent="0.25">
       <c r="C47" s="20" t="s">
@@ -4609,12 +4826,12 @@
       <c r="D47" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="63" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4627,12 +4844,12 @@
       <c r="D50" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="63" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="63" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4642,22 +4859,22 @@
       </c>
     </row>
     <row r="53" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="E54" s="25" t="s">
-        <v>244</v>
+      <c r="E54" s="24" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="63" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4665,45 +4882,45 @@
       <c r="C62" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="72" t="s">
+      <c r="E62" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="F62" s="72"/>
-      <c r="G62" s="33" t="s">
-        <v>248</v>
+      <c r="F62" s="75"/>
+      <c r="G62" s="30" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="72"/>
+      <c r="F63" s="75"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="72" t="s">
+      <c r="E64" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="F64" s="72"/>
-      <c r="G64" s="73" t="s">
-        <v>247</v>
+      <c r="F64" s="75"/>
+      <c r="G64" s="76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="76"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="72" t="s">
+      <c r="E66" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="76"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68" s="20" t="s">
@@ -4714,18 +4931,18 @@
       <c r="C69" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="31" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="63" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4733,35 +4950,111 @@
       <c r="D72" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="51" t="s">
+      <c r="F72" s="45" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="73" spans="3:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D73" s="35" t="s">
-        <v>239</v>
+      <c r="D73" s="32" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D74" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="G74" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D75" s="33"/>
+      <c r="E75" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="G74" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D75" s="36"/>
-      <c r="E75" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="G75" s="36"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" s="63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="63" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D83" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E83" s="63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="63" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D85" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C86" s="20"/>
+      <c r="D86" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="F86" s="63"/>
+    </row>
+    <row r="87" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D87" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E87" s="63" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4790,58 +5083,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="52"/>
-    <col min="2" max="2" width="51.7109375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" style="76" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="9.140625" style="46"/>
+    <col min="2" max="2" width="51.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="61" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="68"/>
+    </row>
+    <row r="7" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="C7" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="65"/>
-    </row>
-    <row r="7" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64" t="s">
+      <c r="D7" s="68"/>
+    </row>
+    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="D7" s="65"/>
-    </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
-        <v>376</v>
+    </row>
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4856,136 +5154,278 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E20"/>
+  <dimension ref="B3:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="46"/>
-    <col min="2" max="2" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="46" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="9.140625" style="41"/>
+    <col min="2" max="2" width="21.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="15" style="41" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="E3" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="45" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>347</v>
-      </c>
+      <c r="C6" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="D15" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="46" t="s">
+      <c r="D21" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="46" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="52" t="s">
+    </row>
+    <row r="22" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="B24" s="41"/>
+      <c r="C24" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="46" t="s">
-        <v>360</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>363</v>
+      <c r="F24" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C31" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="E38" s="66"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20"/>
+      <c r="C45" s="46" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="41" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId1"/>
+    <hyperlink ref="E35" r:id="rId2" location="Temporal_dead_zone"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4994,7 +5434,7 @@
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5005,57 +5445,71 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C5" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="44" t="s">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="44" t="s">
-        <v>263</v>
-      </c>
-    </row>
     <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>322</v>
+      <c r="B9" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>285</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5063,8 +5517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:G18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5077,82 +5531,82 @@
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="3:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D12" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>311</v>
+      <c r="D12" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D17" s="46" t="s">
-        <v>314</v>
+      <c r="D17" s="41" t="s">
+        <v>311</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5167,156 +5621,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="C19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>271</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
         <v>269</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>276</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>278</v>
-      </c>
-      <c r="E8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
         <v>280</v>
-      </c>
-      <c r="E9" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>326</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="12" spans="3:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="20"/>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="50"/>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" spans="3:6" ht="120" x14ac:dyDescent="0.25">
       <c r="C15" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D18" s="45" t="s">
-        <v>303</v>
+      <c r="D18" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5326,4 +5786,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>
--- a/ReactMindMap.xlsx
+++ b/ReactMindMap.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983B968-31EE-2544-B673-ACB3A3F03AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="3390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -12,20 +13,22 @@
     <sheet name="Advanced concepts" sheetId="3" r:id="rId3"/>
     <sheet name="LifecycleMethods" sheetId="9" r:id="rId4"/>
     <sheet name="JavaScript" sheetId="6" r:id="rId5"/>
-    <sheet name="Sass" sheetId="4" r:id="rId6"/>
-    <sheet name="CSS" sheetId="8" r:id="rId7"/>
-    <sheet name="HTML" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name="TypeScript" sheetId="12" r:id="rId6"/>
+    <sheet name="Sass" sheetId="4" r:id="rId7"/>
+    <sheet name="CSS" sheetId="8" r:id="rId8"/>
+    <sheet name="HTML" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="Kubernetes" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="ReactDocs">'React-16.5.2-MainConcepts'!$1:$1048576</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentManualCount="16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="540">
   <si>
     <t>Stateful component</t>
   </si>
@@ -2657,12 +2660,429 @@
   <si>
     <t>Re-assignment</t>
   </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>unique frequency</t>
+  </si>
+  <si>
+    <t>space and time complexity</t>
+  </si>
+  <si>
+    <t>variable define till assignment</t>
+  </si>
+  <si>
+    <t>https://trainingportal.linuxfoundation.org/learn/course/introduction-to-kubernetes/advanced-topics-1/introduction?page=1</t>
+  </si>
+  <si>
+    <t>What it covers</t>
+  </si>
+  <si>
+    <t>Network and security policies</t>
+  </si>
+  <si>
+    <t>Security contexts,</t>
+  </si>
+  <si>
+    <t>Package management,</t>
+  </si>
+  <si>
+    <t>Resource and quota management</t>
+  </si>
+  <si>
+    <t>Auto-scaling</t>
+  </si>
+  <si>
+    <t>Batch controllers,</t>
+  </si>
+  <si>
+    <t>Stateful application controllers,</t>
+  </si>
+  <si>
+    <t>Multi-node pod controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic concepts </t>
+  </si>
+  <si>
+    <t>Simple workflows</t>
+  </si>
+  <si>
+    <t>Build a solid foundation</t>
+  </si>
+  <si>
+    <t>Enterprise-class production</t>
+  </si>
+  <si>
+    <t>Concepts, architecture, problem it solves</t>
+  </si>
+  <si>
+    <t>Model - for containerized deployments and scalling</t>
+  </si>
+  <si>
+    <t>deploy standalone/multi tier apps</t>
+  </si>
+  <si>
+    <t>configmaps, secrets, ingress</t>
+  </si>
+  <si>
+    <t>By the end </t>
+  </si>
+  <si>
+    <t>Discuss the origin, architecture, primary components and building blocks of Kubernetes.</t>
+  </si>
+  <si>
+    <t>Set up and access a Kubernetes cluster using Minikube.</t>
+  </si>
+  <si>
+    <t>Run applications on the deployed Kubernetes environment, and access the deployed applications.</t>
+  </si>
+  <si>
+    <t>Discuss the usefulness of Kubernetes communities, and how you can participate.</t>
+  </si>
+  <si>
+    <t>Monolith vs Microservices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 pebble analogy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactor </t>
+  </si>
+  <si>
+    <t>Big bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inccremental </t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monolith difficult to refactor, need to rebuilt
+- Mainframe app in Cobol or Assembler 
+- Poorly designed system
+- Applications tightly coupled with data stores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable tooling to keep it floating </t>
+  </si>
+  <si>
+    <t>Correct run time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">many module on single physical server/VM -&gt;&gt; chances are that different libraries and runtime environments may conflict with one another, causing errors and failures. </t>
+  </si>
+  <si>
+    <t>Application containers came along providing encapsulated lightweight runtime environments for application modules. </t>
+  </si>
+  <si>
+    <t>Application containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supported widely </t>
+  </si>
+  <si>
+    <t>Deploys multiple applications on the same server, each running in their own execution environments isolated from one another, thus avoiding conflicts, errors, and failures.</t>
+  </si>
+  <si>
+    <t>Ensures application portability from physical bare-metal to Virtual Machines</t>
+  </si>
+  <si>
+    <t>Promises consistent software environments for developers, testers, all the way from Development to Production.</t>
+  </si>
+  <si>
+    <t>Encapsulates lightweight runtime environments for application modules</t>
+  </si>
+  <si>
+    <t>Features of containerized application environments</t>
+  </si>
+  <si>
+    <t>Higher server utilization</t>
+  </si>
+  <si>
+    <t>Individual module scalability</t>
+  </si>
+  <si>
+    <t>Flexibility</t>
+  </si>
+  <si>
+    <t>Interoperability</t>
+  </si>
+  <si>
+    <t>Easy integration with automation tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Making applications portable across environments.
+2. Ensuring consistent runtime environments.
+3. Simplifying scaling and resource management.
+4. Enhancing security through isolation.
+5. Giving developers the freedom to choose the best tools for the job. </t>
+  </si>
+  <si>
+    <t>Example: You build a web application using a Node.js container image. This image can run seamlessly on your local development machine (macOS), a testing server (Linux), and a production environment in the cloud (AWS, Azure, Google Cloud) without any modifications.</t>
+  </si>
+  <si>
+    <t>Interoperability refers to the ability to write code that works with multiple cloud providers at same time.</t>
+  </si>
+  <si>
+    <t>Container Image --&gt; Confine the application code, its runtime, and all of its dependencies in a pre-defined format.</t>
+  </si>
+  <si>
+    <t>container runtime</t>
+  </si>
+  <si>
+    <t>S/w responsible for running containers</t>
+  </si>
+  <si>
+    <t>Responsible for everything from pulling container images from a container registry and managing their life cycle to running the containers on your system.</t>
+  </si>
+  <si>
+    <t>Containers are essential for packaging and isolating microservices, but they rely on a container runtime environment to handle the actual execution of the microservice's code.</t>
+  </si>
+  <si>
+    <t>container &amp; container image</t>
+  </si>
+  <si>
+    <t>Container Images: The Blueprint</t>
+  </si>
+  <si>
+    <t>Containers: The Running Instance of container image.</t>
+  </si>
+  <si>
+    <t>In essence:</t>
+  </si>
+  <si>
+    <t>You don't directly "run" a container image like you run an executable file.</t>
+  </si>
+  <si>
+    <t>Instead, you use a container runtime to create a container based on the image.</t>
+  </si>
+  <si>
+    <t>The container then provides the isolated environment where the microservice's code is executed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Analogy:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container Image (Recipe):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The recipe provides all the ingredients and instructions to make a cake.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container (The Actual Cake)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: You use the recipe to bake an actual cake, which is a realized, edible instance of the recipe. </t>
+    </r>
+  </si>
+  <si>
+    <t>Container orchestrators are tools which group systems together to form clusters where containers' deployment and management is automated at scale </t>
+  </si>
+  <si>
+    <t>Container Orchestration</t>
+  </si>
+  <si>
+    <t>Kubernetes Features</t>
+  </si>
+  <si>
+    <t>Automatic bin packing</t>
+  </si>
+  <si>
+    <t>Designed for extensibility</t>
+  </si>
+  <si>
+    <t>Self-healing</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>To be a static typechecker for JavaScript programs.</t>
+  </si>
+  <si>
+    <t>A tool that runs before your code runs (static).</t>
+  </si>
+  <si>
+    <t>Ensures that the types of the program are correct (typechecked).</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>It can highlight unexpected behavior in your code, lowering the chance of bugs.</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Types by Inference</t>
+  </si>
+  <si>
+    <t>Basic Types</t>
+  </si>
+  <si>
+    <t>The only way in pure JavaScript to tell what fn does with a particular value is to call it and see what happens.</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fn(x) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript only truly provides </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>dynamic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> typing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - running the code to see what happens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> x.flip();</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Type contraints</t>
+  </si>
+  <si>
+    <t>function getNextId&lt;T extends { id: number }&gt;(items: T[]): number {</t>
+  </si>
+  <si>
+    <t>    return items.reduce((max, x) =&gt; x.id &gt; max ? x.id : max, 0) + 1</t>
+  </si>
+  <si>
+    <t>Generic function </t>
+  </si>
+  <si>
+    <t>Complex types</t>
+  </si>
+  <si>
+    <t>Indexed properties types</t>
+  </si>
+  <si>
+    <t>Record &amp; utility types</t>
+  </si>
+  <si>
+    <t>Partial, Required </t>
+  </si>
+  <si>
+    <t>Pick</t>
+  </si>
+  <si>
+    <t>Omit </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2831,6 +3251,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2880,7 +3339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2905,69 +3364,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2985,28 +3399,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3034,12 +3427,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3049,20 +3436,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3090,6 +3478,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3125,7 +3515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3169,7 +3565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3218,7 +3620,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3245,9 +3653,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3285,7 +3693,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3357,7 +3765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3530,21 +3938,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -3552,17 +3960,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3573,19 +3981,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -3596,12 +4004,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +4017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3620,28 +4028,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -3653,13 +4061,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -3670,90 +4078,505 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="12" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B30" s="56" t="s">
+    <row r="30" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="B30" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="8" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB959593-78EB-2F48-A85F-C3E446402AA5}">
+  <dimension ref="B2:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="39" customWidth="1"/>
+    <col min="2" max="2" width="40" style="38"/>
+    <col min="3" max="16384" width="40" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C6" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D8" s="39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14" s="39" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C15" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C16" s="39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C20" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="C21" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C27" s="39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="B29" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="B31" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B33" s="39"/>
+      <c r="D33" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="39"/>
+    </row>
+    <row r="35" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B35" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="39"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="39"/>
+    </row>
+    <row r="42" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B42" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B43" s="39"/>
+      <c r="C43" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B45" s="39"/>
+      <c r="C45" s="39" t="s">
+        <v>491</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="39"/>
+      <c r="C46" s="39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="C49" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B51" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="C52" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E53" s="39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E54" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B57" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C60" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C61" s="39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>45</v>
@@ -3761,190 +4584,175 @@
       <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="29" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="18"/>
-      <c r="E2" s="49"/>
-    </row>
-    <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="49"/>
-    </row>
-    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="49"/>
-    </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="19" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E10" s="68"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="68"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="68"/>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C16" s="46" t="s">
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="50"/>
+      <c r="E20" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="50"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="69"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="50"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="69"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="50"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="69"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="50"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
@@ -3952,169 +4760,160 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" t="s">
         <v>339</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="49"/>
-    </row>
-    <row r="31" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="19" t="s">
+      <c r="C31" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="49"/>
-    </row>
-    <row r="32" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="19" t="s">
+      <c r="C32" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="49"/>
-    </row>
-    <row r="33" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="80" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="144" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="15" t="s">
+    <row r="40" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="49"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="72"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="49"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="72"/>
-    </row>
-    <row r="46" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="18" t="s">
+      <c r="D45" s="49"/>
+    </row>
+    <row r="46" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="49"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="49"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="70" t="s">
+      <c r="D50" s="49"/>
+      <c r="E50" s="47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="70"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="49"/>
+      <c r="E51" s="47"/>
+    </row>
+    <row r="52" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="2:5" s="19" customFormat="1" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="C53" s="18" t="s">
+    <row r="53" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="C53" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="49"/>
-    </row>
-    <row r="54" spans="2:5" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="C54" s="18" t="s">
+    </row>
+    <row r="54" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="C54" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>77</v>
       </c>
@@ -4122,368 +4921,354 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C58" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C60" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="C67" s="10" t="s">
+    <row r="67" spans="2:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="C67" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="54" t="s">
+      <c r="E67" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="19" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="49"/>
-    </row>
-    <row r="73" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="126" x14ac:dyDescent="0.3">
-      <c r="C75" s="11" t="s">
+    <row r="75" spans="2:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="C75" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="54" t="s">
+      <c r="E75" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C80" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="C81" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>107</v>
       </c>
-      <c r="D84" s="71"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="48"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="71"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="71"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="48"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>111</v>
       </c>
-      <c r="D87" s="71"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="48"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="71"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="48"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="2:5" s="19" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="B93" s="20" t="s">
+    <row r="93" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B93" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E93" s="49"/>
-    </row>
-    <row r="94" spans="2:5" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="C94" s="20" t="s">
+    </row>
+    <row r="94" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="C94" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="105" x14ac:dyDescent="0.3">
-      <c r="B95" s="23"/>
-      <c r="C95" s="23" t="s">
+    <row r="95" spans="2:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="2:5" s="19" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B96" s="20" t="s">
+    <row r="96" spans="2:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D96" s="45" t="s">
+      <c r="D96" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="26" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="46"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="49"/>
-    </row>
-    <row r="98" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="49"/>
-    </row>
-    <row r="99" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="49"/>
-    </row>
-    <row r="100" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="49"/>
-    </row>
-    <row r="101" spans="2:5" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.3">
-      <c r="B101" s="20" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="2:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="B101" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="45" t="s">
+      <c r="C101" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="E101" s="49"/>
-    </row>
-    <row r="102" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>193</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>194</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>196</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="D106" s="18" t="s">
+    <row r="106" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D106" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="C108" s="19" t="s">
+    <row r="108" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="B112" s="20" t="s">
+    <row r="112" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B112" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D112" s="71" t="s">
+      <c r="D112" s="48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>210</v>
       </c>
-      <c r="D113" s="71"/>
-    </row>
-    <row r="114" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="19" t="s">
+      <c r="D113" s="48"/>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
         <v>252</v>
       </c>
-      <c r="D114" s="71"/>
-      <c r="E114" s="49"/>
-    </row>
-    <row r="115" spans="3:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="19" t="s">
+      <c r="D114" s="48"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
         <v>251</v>
       </c>
-      <c r="D115" s="71"/>
-      <c r="E115" s="49"/>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C116" s="12" t="s">
+      <c r="D115" s="48"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C116" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D116" s="71"/>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D117" s="71"/>
-    </row>
-    <row r="118" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="D116" s="48"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="48"/>
+    </row>
+    <row r="118" spans="3:5" ht="48" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>211</v>
       </c>
-      <c r="E118" s="54" t="s">
+      <c r="E118" s="30" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C120" s="12" t="s">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C120" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>285</v>
       </c>
-      <c r="D122" s="52" t="s">
+      <c r="D122" s="28" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4523,12 +5308,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D64" r:id="rId1"/>
-    <hyperlink ref="D60" r:id="rId2" location="recursing-on-children"/>
-    <hyperlink ref="C71" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down"/>
-    <hyperlink ref="C116" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs"/>
-    <hyperlink ref="C120" r:id="rId5"/>
-    <hyperlink ref="D122" r:id="rId6"/>
+    <hyperlink ref="D64" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D60" r:id="rId2" location="recursing-on-children" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C71" r:id="rId3" location="the-data-flows-down" display="https://reactjs.org/docs/state-and-lifecycle.html - the-data-flows-down" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C116" r:id="rId4" display="match.url helps us make a relative path https://stackoverflow.com/questions/46096518/what-exactly-is-dynamic-routing-in-reactjs" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C120" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D122" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -4536,523 +5321,496 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:G87"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="17"/>
-    <col min="3" max="3" width="31" style="20" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="2" width="9.1640625" style="4"/>
+    <col min="3" max="3" width="31" style="11" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="20" t="s">
+    <row r="4" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C4" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="17" t="s">
+    <row r="5" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="17" t="s">
+    <row r="6" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="17" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="C9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E10" s="63" t="s">
+    <row r="10" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="E10" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="D11" s="17" t="s">
+    <row r="11" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="17" t="s">
+    <row r="13" spans="3:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="3:7" s="28" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="3:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="C14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="3:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="3:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="3:7" s="26" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+    </row>
+    <row r="17" spans="3:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="26" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="27" t="s">
+    <row r="18" spans="3:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="3:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="26" t="s">
+    </row>
+    <row r="19" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="26" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="25" t="s">
+    <row r="20" spans="3:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="3:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="23" spans="3:7" ht="225" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
+    <row r="23" spans="3:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="C23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="74"/>
-    </row>
-    <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="48" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="51"/>
+    </row>
+    <row r="25" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D25" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G25" s="74"/>
-    </row>
-    <row r="26" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="63" t="s">
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E26" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G26" s="74"/>
-    </row>
-    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E27" s="63" t="s">
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E27" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="74"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="74"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="17" t="s">
+      <c r="G27" s="51"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D29" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="74"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="74"/>
-    </row>
-    <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="17" t="s">
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D31" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G31" s="74"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="74"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="74"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="17" t="s">
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="51"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="51"/>
+    </row>
+    <row r="34" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="74"/>
-    </row>
-    <row r="35" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E35" s="63" t="s">
+      <c r="G34" s="51"/>
+    </row>
+    <row r="35" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E35" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D37" s="32" t="s">
+    <row r="37" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D37" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="3:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="63"/>
-      <c r="F44" s="45"/>
-    </row>
-    <row r="47" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C47" s="20" t="s">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="47" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C47" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="22" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D49" s="17" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="17" t="s">
+    <row r="50" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D50" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="E50" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E51" s="63" t="s">
+    <row r="51" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E51" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D52" s="21" t="s">
+    <row r="52" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D52" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E53" s="24" t="s">
+    <row r="53" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="E53" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="E54" s="24" t="s">
+    <row r="54" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="E54" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="24" t="s">
+    <row r="55" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E55" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="63" t="s">
+    <row r="56" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E56" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="3:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="20" t="s">
+    <row r="62" spans="3:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="75" t="s">
+      <c r="E62" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="F62" s="75"/>
-      <c r="G62" s="30" t="s">
+      <c r="F62" s="52"/>
+      <c r="G62" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="75" t="s">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E63" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="75"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="75" t="s">
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E64" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="F64" s="75"/>
-      <c r="G64" s="76" t="s">
+      <c r="F64" s="52"/>
+      <c r="G64" s="53" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="75" t="s">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="76"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E66" s="75" t="s">
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="F66" s="75"/>
-      <c r="G66" s="76"/>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="20" t="s">
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C68" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="C69" s="12" t="s">
+    <row r="69" spans="3:7" ht="63" x14ac:dyDescent="0.3">
+      <c r="C69" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C71" s="35" t="s">
+    <row r="71" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C71" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D71" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="17" t="s">
+    <row r="72" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="D72" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F72" s="45" t="s">
+      <c r="F72" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D73" s="32" t="s">
+    <row r="73" spans="3:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="D73" s="9" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="17" t="s">
+    <row r="74" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D74" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G74" s="22" t="s">
+      <c r="G74" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D75" s="33"/>
-      <c r="E75" s="63" t="s">
+    <row r="75" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E75" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G75" s="33"/>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="20" t="s">
+    </row>
+    <row r="78" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C78" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="17" t="s">
+    <row r="79" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D79" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="17" t="s">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D80" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="17" t="s">
+    <row r="81" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D81" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="E81" s="63" t="s">
+      <c r="E81" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="63" t="s">
+    <row r="82" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E82" s="9" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D83" s="17" t="s">
+    <row r="83" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D83" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="9" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="63" t="s">
+    <row r="84" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E84" s="9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D85" s="17" t="s">
+    <row r="85" spans="4:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D85" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E85" s="63" t="s">
+      <c r="E85" s="9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="3:6" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="C86" s="20"/>
-      <c r="D86" s="63" t="s">
+    <row r="86" spans="4:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D86" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="E86" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="F86" s="63"/>
-    </row>
-    <row r="87" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D87" s="17" t="s">
+    </row>
+    <row r="87" spans="4:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D87" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E87" s="63" t="s">
+      <c r="E87" s="9" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5067,13 +5825,13 @@
     <mergeCell ref="G64:G66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1"/>
-    <hyperlink ref="D14" r:id="rId2"/>
-    <hyperlink ref="C69" r:id="rId3"/>
-    <hyperlink ref="D71" r:id="rId4" display="https://www.npmjs.com/package/html-webpack-plugin"/>
-    <hyperlink ref="C71" r:id="rId5"/>
-    <hyperlink ref="G74" r:id="rId6"/>
-    <hyperlink ref="G37" r:id="rId7"/>
+    <hyperlink ref="C48" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C69" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D71" r:id="rId4" display="https://www.npmjs.com/package/html-webpack-plugin" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C71" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G74" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G37" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -5082,63 +5840,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="46"/>
-    <col min="2" max="2" width="51.7109375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" style="61" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="51.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="34" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="2:4" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="45" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="68"/>
-    </row>
-    <row r="7" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="2:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D7" s="68"/>
-    </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="D7" s="45"/>
+    </row>
+    <row r="9" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+    <row r="11" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5153,276 +5911,274 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B3:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="21.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="15" style="41" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="21.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="41" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="41" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="41" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="41" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="46" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="46" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="41" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="57" t="s">
+    <row r="24" spans="2:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="21" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="41" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+    <row r="29" spans="2:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="41" t="s">
+    <row r="31" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="9" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="41" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="12" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="41" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
-      <c r="C37" s="46" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="41" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E38" s="66"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="41" t="s">
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="E39" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="41" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="20"/>
-      <c r="C45" s="46" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
-      <c r="C46" s="41" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="4" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1"/>
-    <hyperlink ref="E35" r:id="rId2" location="Temporal_dead_zone"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E35" r:id="rId2" location="Temporal_dead_zone" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
@@ -5430,20 +6186,201 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C1AF5-B410-F844-A5D4-F5505242F941}">
+  <dimension ref="B4:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="2:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="D15" s="43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="C28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>258</v>
       </c>
@@ -5451,104 +6388,104 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="39" t="s">
+    <row r="5" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="C5" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="39" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="22" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="3:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="8" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C5:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>304</v>
       </c>
       <c r="D5" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>264</v>
       </c>
@@ -5556,17 +6493,17 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>267</v>
       </c>
@@ -5574,15 +6511,15 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D12" s="42" t="s">
+    <row r="12" spans="3:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="D12" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>306</v>
       </c>
@@ -5590,61 +6527,60 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="19" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D17" s="41" t="s">
+    <row r="17" spans="4:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:F22"/>
   <sheetViews>
     <sheetView topLeftCell="C19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="5" max="5" width="53.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="35" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>268</v>
       </c>
@@ -5652,8 +6588,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="41" t="s">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D5" t="s">
@@ -5663,8 +6599,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="41" t="s">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D6" t="s">
@@ -5674,8 +6610,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D7" t="s">
@@ -5685,8 +6621,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="41" t="s">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
         <v>386</v>
       </c>
       <c r="D8" t="s">
@@ -5696,7 +6632,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>279</v>
       </c>
@@ -5704,8 +6640,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="11" t="s">
         <v>282</v>
       </c>
       <c r="D11" t="s">
@@ -5714,162 +6650,73 @@
       <c r="E11" t="s">
         <v>322</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="3:6" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
+    <row r="12" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C12" s="11"/>
       <c r="D12" t="s">
         <v>323</v>
       </c>
       <c r="E12" t="s">
         <v>324</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="3:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="3:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="3:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+    <row r="17" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="C17" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D18" s="40" t="s">
+    <row r="18" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
         <v>301</v>
       </c>
       <c r="E18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="3:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="3:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="9" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="diff bet HTML and HTML5"/>
+    <hyperlink ref="C3" r:id="rId1" display="diff bet HTML and HTML5" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
 </file>